--- a/data/dataset.xlsx
+++ b/data/dataset.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\falcu\Documents\GitHub\Glycymeris-Perforations\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC637CE3-2946-4628-9250-D46099FEF922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BE2A09-AFEA-44E5-838C-CF07F8844414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shared file for corrections Fla" sheetId="3" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Shared file for corrections Fla'!$A$1:$V$97</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -81,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="174">
   <si>
     <t>ID</t>
   </si>
@@ -528,6 +531,81 @@
   </si>
   <si>
     <t>ARCH_128b</t>
+  </si>
+  <si>
+    <t>Perforation</t>
+  </si>
+  <si>
+    <t>Indirect percussion</t>
+  </si>
+  <si>
+    <t>Direct percussion</t>
+  </si>
+  <si>
+    <t>Abrasion</t>
+  </si>
+  <si>
+    <t>Abrasion+Drill</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>NAT_11</t>
+  </si>
+  <si>
+    <t>NAT_16</t>
+  </si>
+  <si>
+    <t>NAT_48</t>
+  </si>
+  <si>
+    <t>NAT_69</t>
+  </si>
+  <si>
+    <t>NAT_76</t>
+  </si>
+  <si>
+    <t>NAT_80</t>
+  </si>
+  <si>
+    <t>NAT_91</t>
+  </si>
+  <si>
+    <t>NAT_92</t>
+  </si>
+  <si>
+    <t>NAT_109</t>
+  </si>
+  <si>
+    <t>NAT_112</t>
+  </si>
+  <si>
+    <t>NAT_8</t>
+  </si>
+  <si>
+    <t>NAT_1</t>
+  </si>
+  <si>
+    <t>NAT_4</t>
+  </si>
+  <si>
+    <t>NAT_5</t>
+  </si>
+  <si>
+    <t>NAT_2</t>
+  </si>
+  <si>
+    <t>NAT_6</t>
+  </si>
+  <si>
+    <t>NAT_7</t>
+  </si>
+  <si>
+    <t>NAT_3</t>
+  </si>
+  <si>
+    <t>Natural</t>
   </si>
 </sst>
 </file>
@@ -562,7 +640,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,6 +671,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -606,7 +690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -639,6 +723,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -942,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9378DE56-4AC5-415E-848F-E2ACB5B89CDD}">
-  <dimension ref="A1:U97"/>
+  <dimension ref="A1:V115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:XFD102"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="T105" sqref="T105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,10 +1045,10 @@
     <col min="16" max="16" width="40.6640625" style="15" customWidth="1"/>
     <col min="17" max="18" width="40.6640625" customWidth="1"/>
     <col min="19" max="19" width="36.6640625" customWidth="1"/>
-    <col min="20" max="20" width="21.6640625" customWidth="1"/>
+    <col min="20" max="21" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1025,10 +1110,13 @@
         <v>38</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1086,8 +1174,14 @@
       <c r="S2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -1145,8 +1239,14 @@
       <c r="S3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1204,8 +1304,14 @@
       <c r="S4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1261,8 +1367,14 @@
       <c r="S5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1318,8 +1430,14 @@
       <c r="S6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -1375,8 +1493,14 @@
       <c r="S7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T7" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -1432,8 +1556,14 @@
       <c r="S8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -1489,8 +1619,14 @@
       <c r="S9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -1546,8 +1682,14 @@
       <c r="S10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -1603,8 +1745,14 @@
       <c r="S11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T11" t="s">
+        <v>36</v>
+      </c>
+      <c r="U11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -1660,8 +1808,14 @@
       <c r="S12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T12" t="s">
+        <v>36</v>
+      </c>
+      <c r="U12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -1717,8 +1871,14 @@
       <c r="S13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T13" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -1774,8 +1934,14 @@
       <c r="S14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T14" t="s">
+        <v>36</v>
+      </c>
+      <c r="U14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -1831,8 +1997,14 @@
       <c r="S15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T15" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -1888,8 +2060,14 @@
       <c r="S16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T16" t="s">
+        <v>36</v>
+      </c>
+      <c r="U16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -1945,8 +2123,14 @@
       <c r="S17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T17" t="s">
+        <v>36</v>
+      </c>
+      <c r="U17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -2002,8 +2186,14 @@
       <c r="S18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T18" t="s">
+        <v>36</v>
+      </c>
+      <c r="U18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -2059,8 +2249,14 @@
       <c r="S19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T19" t="s">
+        <v>36</v>
+      </c>
+      <c r="U19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -2116,8 +2312,14 @@
       <c r="S20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T20" t="s">
+        <v>36</v>
+      </c>
+      <c r="U20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -2173,8 +2375,14 @@
       <c r="S21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T21" t="s">
+        <v>36</v>
+      </c>
+      <c r="U21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -2230,8 +2438,14 @@
       <c r="S22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T22" t="s">
+        <v>36</v>
+      </c>
+      <c r="U22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -2287,8 +2501,14 @@
       <c r="S23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T23" t="s">
+        <v>36</v>
+      </c>
+      <c r="U23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -2344,8 +2564,14 @@
       <c r="S24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T24" t="s">
+        <v>36</v>
+      </c>
+      <c r="U24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -2401,8 +2627,14 @@
       <c r="S25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T25" t="s">
+        <v>36</v>
+      </c>
+      <c r="U25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -2458,8 +2690,14 @@
       <c r="S26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T26" t="s">
+        <v>36</v>
+      </c>
+      <c r="U26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -2515,8 +2753,14 @@
       <c r="S27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T27" t="s">
+        <v>36</v>
+      </c>
+      <c r="U27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -2572,8 +2816,14 @@
       <c r="S28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T28" t="s">
+        <v>36</v>
+      </c>
+      <c r="U28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -2629,8 +2879,14 @@
       <c r="S29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T29" t="s">
+        <v>36</v>
+      </c>
+      <c r="U29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>80</v>
       </c>
@@ -2686,8 +2942,14 @@
       <c r="S30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T30" t="s">
+        <v>36</v>
+      </c>
+      <c r="U30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -2743,8 +3005,14 @@
       <c r="S31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T31" t="s">
+        <v>36</v>
+      </c>
+      <c r="U31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -2800,8 +3068,14 @@
       <c r="S32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T32" t="s">
+        <v>36</v>
+      </c>
+      <c r="U32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>83</v>
       </c>
@@ -2857,8 +3131,14 @@
       <c r="S33" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T33" t="s">
+        <v>36</v>
+      </c>
+      <c r="U33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -2914,8 +3194,14 @@
       <c r="S34" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T34" t="s">
+        <v>36</v>
+      </c>
+      <c r="U34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -2971,8 +3257,14 @@
       <c r="S35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T35" t="s">
+        <v>36</v>
+      </c>
+      <c r="U35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -3028,8 +3320,14 @@
       <c r="S36" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T36" t="s">
+        <v>36</v>
+      </c>
+      <c r="U36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -3085,8 +3383,14 @@
       <c r="S37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T37" t="s">
+        <v>36</v>
+      </c>
+      <c r="U37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -3142,8 +3446,14 @@
       <c r="S38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T38" t="s">
+        <v>36</v>
+      </c>
+      <c r="U38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -3199,8 +3509,14 @@
       <c r="S39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T39" t="s">
+        <v>36</v>
+      </c>
+      <c r="U39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -3256,8 +3572,14 @@
       <c r="S40" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T40" t="s">
+        <v>36</v>
+      </c>
+      <c r="U40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>91</v>
       </c>
@@ -3313,8 +3635,14 @@
       <c r="S41" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T41" t="s">
+        <v>36</v>
+      </c>
+      <c r="U41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -3370,8 +3698,14 @@
       <c r="S42" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T42" t="s">
+        <v>36</v>
+      </c>
+      <c r="U42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -3427,8 +3761,14 @@
       <c r="S43" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T43" t="s">
+        <v>36</v>
+      </c>
+      <c r="U43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>94</v>
       </c>
@@ -3484,8 +3824,14 @@
       <c r="S44" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T44" t="s">
+        <v>36</v>
+      </c>
+      <c r="U44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -3541,8 +3887,14 @@
       <c r="S45" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T45" t="s">
+        <v>36</v>
+      </c>
+      <c r="U45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -3598,8 +3950,14 @@
       <c r="S46" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T46" t="s">
+        <v>36</v>
+      </c>
+      <c r="U46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>97</v>
       </c>
@@ -3655,8 +4013,14 @@
       <c r="S47" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T47" t="s">
+        <v>36</v>
+      </c>
+      <c r="U47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>98</v>
       </c>
@@ -3703,8 +4067,14 @@
       <c r="S48" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T48" t="s">
+        <v>36</v>
+      </c>
+      <c r="U48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>147</v>
       </c>
@@ -3754,8 +4124,14 @@
       <c r="S49" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T49" t="s">
+        <v>36</v>
+      </c>
+      <c r="U49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>148</v>
       </c>
@@ -3805,8 +4181,14 @@
       <c r="S50" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T50" t="s">
+        <v>36</v>
+      </c>
+      <c r="U50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>99</v>
       </c>
@@ -3858,10 +4240,13 @@
         <v>22</v>
       </c>
       <c r="U51" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="V51" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -3913,10 +4298,13 @@
         <v>24</v>
       </c>
       <c r="U52" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="V52" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>101</v>
       </c>
@@ -3968,10 +4356,13 @@
         <v>26</v>
       </c>
       <c r="U53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V53" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>102</v>
       </c>
@@ -4023,10 +4414,13 @@
         <v>24</v>
       </c>
       <c r="U54" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="V54" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>103</v>
       </c>
@@ -4078,10 +4472,13 @@
         <v>27</v>
       </c>
       <c r="U55" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V55" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>104</v>
       </c>
@@ -4133,10 +4530,13 @@
         <v>27</v>
       </c>
       <c r="U56" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V56" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -4188,10 +4588,13 @@
         <v>26</v>
       </c>
       <c r="U57" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V57" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>106</v>
       </c>
@@ -4243,10 +4646,13 @@
         <v>22</v>
       </c>
       <c r="U58" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="V58" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>107</v>
       </c>
@@ -4298,10 +4704,13 @@
         <v>27</v>
       </c>
       <c r="U59" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V59" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>108</v>
       </c>
@@ -4353,10 +4762,13 @@
         <v>26</v>
       </c>
       <c r="U60" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V60" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>109</v>
       </c>
@@ -4408,10 +4820,13 @@
         <v>27</v>
       </c>
       <c r="U61" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V61" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>110</v>
       </c>
@@ -4463,10 +4878,13 @@
         <v>27</v>
       </c>
       <c r="U62" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V62" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>111</v>
       </c>
@@ -4518,10 +4936,13 @@
         <v>30</v>
       </c>
       <c r="U63" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V63" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>112</v>
       </c>
@@ -4573,10 +4994,13 @@
         <v>27</v>
       </c>
       <c r="U64" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V64" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>113</v>
       </c>
@@ -4628,10 +5052,13 @@
         <v>27</v>
       </c>
       <c r="U65" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V65" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>114</v>
       </c>
@@ -4683,10 +5110,13 @@
         <v>24</v>
       </c>
       <c r="U66" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="V66" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>115</v>
       </c>
@@ -4738,10 +5168,13 @@
         <v>27</v>
       </c>
       <c r="U67" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V67" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>116</v>
       </c>
@@ -4793,10 +5226,13 @@
         <v>31</v>
       </c>
       <c r="U68" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="V68" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>117</v>
       </c>
@@ -4848,10 +5284,13 @@
         <v>26</v>
       </c>
       <c r="U69" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V69" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>118</v>
       </c>
@@ -4903,10 +5342,13 @@
         <v>27</v>
       </c>
       <c r="U70" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V70" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>119</v>
       </c>
@@ -4958,10 +5400,13 @@
         <v>31</v>
       </c>
       <c r="U71" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="V71" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>120</v>
       </c>
@@ -5013,10 +5458,13 @@
         <v>27</v>
       </c>
       <c r="U72" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V72" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>121</v>
       </c>
@@ -5068,10 +5516,13 @@
         <v>26</v>
       </c>
       <c r="U73" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V73" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>122</v>
       </c>
@@ -5123,10 +5574,13 @@
         <v>31</v>
       </c>
       <c r="U74" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="V74" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>123</v>
       </c>
@@ -5178,10 +5632,13 @@
         <v>27</v>
       </c>
       <c r="U75" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V75" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>124</v>
       </c>
@@ -5233,10 +5690,13 @@
         <v>27</v>
       </c>
       <c r="U76" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V76" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>125</v>
       </c>
@@ -5288,10 +5748,13 @@
         <v>27</v>
       </c>
       <c r="U77" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V77" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>126</v>
       </c>
@@ -5343,10 +5806,13 @@
         <v>27</v>
       </c>
       <c r="U78" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V78" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>127</v>
       </c>
@@ -5398,10 +5864,13 @@
         <v>27</v>
       </c>
       <c r="U79" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V79" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>128</v>
       </c>
@@ -5453,10 +5922,13 @@
         <v>30</v>
       </c>
       <c r="U80" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V80" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>129</v>
       </c>
@@ -5508,10 +5980,13 @@
         <v>31</v>
       </c>
       <c r="U81" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="V81" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>130</v>
       </c>
@@ -5563,10 +6038,13 @@
         <v>27</v>
       </c>
       <c r="U82" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V82" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>131</v>
       </c>
@@ -5618,10 +6096,13 @@
         <v>27</v>
       </c>
       <c r="U83" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V83" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>132</v>
       </c>
@@ -5669,14 +6150,17 @@
       <c r="S84" t="s">
         <v>37</v>
       </c>
-      <c r="T84" s="3" t="s">
+      <c r="T84" s="18" t="s">
         <v>32</v>
       </c>
       <c r="U84" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="V84" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>133</v>
       </c>
@@ -5728,10 +6212,13 @@
         <v>31</v>
       </c>
       <c r="U85" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="V85" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>134</v>
       </c>
@@ -5783,10 +6270,13 @@
         <v>27</v>
       </c>
       <c r="U86" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V86" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>135</v>
       </c>
@@ -5838,10 +6328,13 @@
         <v>27</v>
       </c>
       <c r="U87" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V87" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>136</v>
       </c>
@@ -5893,10 +6386,13 @@
         <v>30</v>
       </c>
       <c r="U88" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V88" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>137</v>
       </c>
@@ -5948,10 +6444,13 @@
         <v>26</v>
       </c>
       <c r="U89" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V89" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>138</v>
       </c>
@@ -6003,10 +6502,13 @@
         <v>26</v>
       </c>
       <c r="U90" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V90" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>139</v>
       </c>
@@ -6058,10 +6560,13 @@
         <v>24</v>
       </c>
       <c r="U91" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="V91" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>140</v>
       </c>
@@ -6110,9 +6615,12 @@
         <v>37</v>
       </c>
       <c r="T92" s="3"/>
-      <c r="U92" s="3"/>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U92" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="V92" s="3"/>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>141</v>
       </c>
@@ -6164,10 +6672,13 @@
         <v>30</v>
       </c>
       <c r="U93" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V93" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>142</v>
       </c>
@@ -6219,10 +6730,13 @@
         <v>27</v>
       </c>
       <c r="U94" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V94" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>143</v>
       </c>
@@ -6274,10 +6788,13 @@
         <v>27</v>
       </c>
       <c r="U95" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V95" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>144</v>
       </c>
@@ -6329,10 +6846,13 @@
         <v>27</v>
       </c>
       <c r="U96" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V96" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>145</v>
       </c>
@@ -6384,10 +6904,266 @@
         <v>34</v>
       </c>
       <c r="U97" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="V97" s="3" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>155</v>
+      </c>
+      <c r="B98">
+        <v>11</v>
+      </c>
+      <c r="S98" t="s">
+        <v>173</v>
+      </c>
+      <c r="U98" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>156</v>
+      </c>
+      <c r="B99">
+        <v>16</v>
+      </c>
+      <c r="S99" t="s">
+        <v>173</v>
+      </c>
+      <c r="U99" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>157</v>
+      </c>
+      <c r="B100">
+        <v>48</v>
+      </c>
+      <c r="S100" t="s">
+        <v>173</v>
+      </c>
+      <c r="U100" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>158</v>
+      </c>
+      <c r="B101">
+        <v>69</v>
+      </c>
+      <c r="S101" t="s">
+        <v>173</v>
+      </c>
+      <c r="U101" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>159</v>
+      </c>
+      <c r="B102">
+        <v>76</v>
+      </c>
+      <c r="S102" t="s">
+        <v>173</v>
+      </c>
+      <c r="U102" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>160</v>
+      </c>
+      <c r="B103">
+        <v>80</v>
+      </c>
+      <c r="S103" t="s">
+        <v>173</v>
+      </c>
+      <c r="U103" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>161</v>
+      </c>
+      <c r="B104">
+        <v>91</v>
+      </c>
+      <c r="S104" t="s">
+        <v>173</v>
+      </c>
+      <c r="U104" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>162</v>
+      </c>
+      <c r="B105">
+        <v>92</v>
+      </c>
+      <c r="S105" t="s">
+        <v>173</v>
+      </c>
+      <c r="U105" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106">
+        <v>109</v>
+      </c>
+      <c r="S106" t="s">
+        <v>173</v>
+      </c>
+      <c r="U106" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107">
+        <v>112</v>
+      </c>
+      <c r="S107" t="s">
+        <v>173</v>
+      </c>
+      <c r="U107" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>165</v>
+      </c>
+      <c r="B108">
+        <v>8</v>
+      </c>
+      <c r="S108" t="s">
+        <v>173</v>
+      </c>
+      <c r="U108" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>166</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="S109" t="s">
+        <v>173</v>
+      </c>
+      <c r="U109" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>167</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="S110" t="s">
+        <v>173</v>
+      </c>
+      <c r="U110" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>168</v>
+      </c>
+      <c r="B111">
+        <v>5</v>
+      </c>
+      <c r="S111" t="s">
+        <v>173</v>
+      </c>
+      <c r="U111" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>169</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="S112" t="s">
+        <v>173</v>
+      </c>
+      <c r="U112" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>170</v>
+      </c>
+      <c r="B113">
+        <v>6</v>
+      </c>
+      <c r="S113" t="s">
+        <v>173</v>
+      </c>
+      <c r="U113" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>171</v>
+      </c>
+      <c r="B114">
+        <v>7</v>
+      </c>
+      <c r="S114" t="s">
+        <v>173</v>
+      </c>
+      <c r="U114" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>172</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="S115" t="s">
+        <v>173</v>
+      </c>
+      <c r="U115" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:V97" xr:uid="{9378DE56-4AC5-415E-848F-E2ACB5B89CDD}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/data/dataset.xlsx
+++ b/data/dataset.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\falcu\Documents\GitHub\Glycymeris-Perforations\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BE2A09-AFEA-44E5-838C-CF07F8844414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84495CD6-7823-4AA6-BD15-C9B0095FD704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shared file for corrections Fla" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Shared file for corrections Fla'!$A$1:$V$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Shared file for corrections Fla'!$A$1:$V$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,9 +42,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={BED63B2B-C1CD-468C-8FB1-1A9EE8D038EB}</author>
-    <author>tc={8534095B-4AB8-4A0A-996C-A5590AFFE8B8}</author>
     <author>tc={670F860E-C79E-4464-87D0-F97DA191DBD0}</author>
-    <author>tc={56EC27E7-3752-4DF2-8528-EC22F83FD786}</author>
   </authors>
   <commentList>
     <comment ref="L41" authorId="0" shapeId="0" xr:uid="{BED63B2B-C1CD-468C-8FB1-1A9EE8D038EB}">
@@ -55,15 +53,7 @@
     Probably 0,998</t>
       </text>
     </comment>
-    <comment ref="Q54" authorId="1" shapeId="0" xr:uid="{8534095B-4AB8-4A0A-996C-A5590AFFE8B8}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Very large, ckeck</t>
-      </text>
-    </comment>
-    <comment ref="F61" authorId="2" shapeId="0" xr:uid="{670F860E-C79E-4464-87D0-F97DA191DBD0}">
+    <comment ref="F51" authorId="1" shapeId="0" xr:uid="{670F860E-C79E-4464-87D0-F97DA191DBD0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -71,20 +61,12 @@
     definetly not correct</t>
       </text>
     </comment>
-    <comment ref="Q90" authorId="3" shapeId="0" xr:uid="{56EC27E7-3752-4DF2-8528-EC22F83FD786}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Very large, check</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="176">
   <si>
     <t>ID</t>
   </si>
@@ -152,21 +134,9 @@
     <t>irregular</t>
   </si>
   <si>
-    <t>Indirect perc</t>
-  </si>
-  <si>
     <t>sub oval</t>
   </si>
   <si>
-    <t>Direct perc</t>
-  </si>
-  <si>
-    <t>elliptical</t>
-  </si>
-  <si>
-    <t>Sawing</t>
-  </si>
-  <si>
     <t>Abr</t>
   </si>
   <si>
@@ -176,9 +146,6 @@
     <t>oval</t>
   </si>
   <si>
-    <t>Drill</t>
-  </si>
-  <si>
     <t>Abr + Drill</t>
   </si>
   <si>
@@ -197,9 +164,6 @@
     <t>Archeological</t>
   </si>
   <si>
-    <t>Experiment</t>
-  </si>
-  <si>
     <t>Perforation type</t>
   </si>
   <si>
@@ -218,30 +182,9 @@
     <t>2.01</t>
   </si>
   <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>0.91</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>0.89</t>
-  </si>
-  <si>
-    <t>7.07</t>
-  </si>
-  <si>
-    <t>Hole A</t>
-  </si>
-  <si>
-    <t>Hole B</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
     <t>ARCH_13</t>
   </si>
   <si>
@@ -380,66 +323,33 @@
     <t>ARCH_113</t>
   </si>
   <si>
-    <t>ARCH_127</t>
-  </si>
-  <si>
-    <t>EXP_27</t>
-  </si>
-  <si>
-    <t>EXP_62</t>
-  </si>
-  <si>
-    <t>EXP_63</t>
-  </si>
-  <si>
-    <t>EXP_70</t>
-  </si>
-  <si>
     <t>EXP_72</t>
   </si>
   <si>
     <t>EXP_78</t>
   </si>
   <si>
-    <t>EXP_82</t>
-  </si>
-  <si>
-    <t>EXP_84</t>
-  </si>
-  <si>
     <t>EXP_86</t>
   </si>
   <si>
-    <t>EXP_87</t>
-  </si>
-  <si>
     <t>EXP_90</t>
   </si>
   <si>
     <t>EXP_95</t>
   </si>
   <si>
-    <t>EXP_96</t>
-  </si>
-  <si>
     <t>EXP_97</t>
   </si>
   <si>
     <t>EXP_104</t>
   </si>
   <si>
-    <t>EXP_107</t>
-  </si>
-  <si>
     <t>EXP_125</t>
   </si>
   <si>
     <t>EXP_128</t>
   </si>
   <si>
-    <t>EXP_133</t>
-  </si>
-  <si>
     <t>EXP_135</t>
   </si>
   <si>
@@ -449,9 +359,6 @@
     <t>EXP_137</t>
   </si>
   <si>
-    <t>EXP_138</t>
-  </si>
-  <si>
     <t>EXP_141</t>
   </si>
   <si>
@@ -470,9 +377,6 @@
     <t>EXP_150</t>
   </si>
   <si>
-    <t>EXP_152</t>
-  </si>
-  <si>
     <t>EXP_156</t>
   </si>
   <si>
@@ -494,24 +398,6 @@
     <t>EXP_170</t>
   </si>
   <si>
-    <t>EXP_171</t>
-  </si>
-  <si>
-    <t>EXP_172</t>
-  </si>
-  <si>
-    <t>EXP_183</t>
-  </si>
-  <si>
-    <t>EXP_191</t>
-  </si>
-  <si>
-    <t>EXP_192</t>
-  </si>
-  <si>
-    <t>EXP_193</t>
-  </si>
-  <si>
     <t>EXP_194</t>
   </si>
   <si>
@@ -527,30 +413,15 @@
     <t>ID_old</t>
   </si>
   <si>
-    <t>ARCH_128a</t>
-  </si>
-  <si>
-    <t>ARCH_128b</t>
-  </si>
-  <si>
     <t>Perforation</t>
   </si>
   <si>
-    <t>Indirect percussion</t>
-  </si>
-  <si>
-    <t>Direct percussion</t>
-  </si>
-  <si>
     <t>Abrasion</t>
   </si>
   <si>
     <t>Abrasion+Drill</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>NAT_11</t>
   </si>
   <si>
@@ -581,12 +452,6 @@
     <t>NAT_112</t>
   </si>
   <si>
-    <t>NAT_8</t>
-  </si>
-  <si>
-    <t>NAT_1</t>
-  </si>
-  <si>
     <t>NAT_4</t>
   </si>
   <si>
@@ -606,6 +471,129 @@
   </si>
   <si>
     <t>Natural</t>
+  </si>
+  <si>
+    <t>9R</t>
+  </si>
+  <si>
+    <t>10R</t>
+  </si>
+  <si>
+    <t>11R</t>
+  </si>
+  <si>
+    <t>12R</t>
+  </si>
+  <si>
+    <t>13R</t>
+  </si>
+  <si>
+    <t>14R</t>
+  </si>
+  <si>
+    <t>NAT_9R</t>
+  </si>
+  <si>
+    <t>NAT_175</t>
+  </si>
+  <si>
+    <t>NAT_10R</t>
+  </si>
+  <si>
+    <t>NAT_11R</t>
+  </si>
+  <si>
+    <t>NAT_12R</t>
+  </si>
+  <si>
+    <t>NAT_13R</t>
+  </si>
+  <si>
+    <t>NAT_14R</t>
+  </si>
+  <si>
+    <t>8R</t>
+  </si>
+  <si>
+    <t>1R</t>
+  </si>
+  <si>
+    <t>4R</t>
+  </si>
+  <si>
+    <t>5R</t>
+  </si>
+  <si>
+    <t>2R</t>
+  </si>
+  <si>
+    <t>6R</t>
+  </si>
+  <si>
+    <t>7R</t>
+  </si>
+  <si>
+    <t>3R</t>
+  </si>
+  <si>
+    <t>NAT_8R</t>
+  </si>
+  <si>
+    <t>NAT_1R</t>
+  </si>
+  <si>
+    <t>NAT_4R</t>
+  </si>
+  <si>
+    <t>NAT_5R</t>
+  </si>
+  <si>
+    <t>NAT_2R</t>
+  </si>
+  <si>
+    <t>NAT_6R</t>
+  </si>
+  <si>
+    <t>NAT_7R</t>
+  </si>
+  <si>
+    <t>NAT_3R</t>
+  </si>
+  <si>
+    <t>EXP_103</t>
+  </si>
+  <si>
+    <t>EXP_151</t>
+  </si>
+  <si>
+    <t>EXP_154</t>
+  </si>
+  <si>
+    <t>EXP_164</t>
+  </si>
+  <si>
+    <t>EXP_165</t>
+  </si>
+  <si>
+    <t>EXP_169</t>
+  </si>
+  <si>
+    <t>EXP_180</t>
+  </si>
+  <si>
+    <t>EXP_184</t>
+  </si>
+  <si>
+    <t>EXP_186</t>
+  </si>
+  <si>
+    <t>EXP_190</t>
+  </si>
+  <si>
+    <t>EXP_200</t>
+  </si>
+  <si>
+    <t>Experimental</t>
   </si>
 </sst>
 </file>
@@ -640,7 +628,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,19 +649,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,7 +672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -699,11 +681,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -722,8 +699,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1013,47 +990,41 @@
   <threadedComment ref="L41" dT="2024-11-26T14:24:52.88" personId="{6B4E551A-156F-4FDD-8133-CFBD78731A97}" id="{BED63B2B-C1CD-468C-8FB1-1A9EE8D038EB}">
     <text>Probably 0,998</text>
   </threadedComment>
-  <threadedComment ref="Q54" dT="2024-11-26T14:25:43.72" personId="{6B4E551A-156F-4FDD-8133-CFBD78731A97}" id="{8534095B-4AB8-4A0A-996C-A5590AFFE8B8}">
-    <text>Very large, ckeck</text>
-  </threadedComment>
-  <threadedComment ref="F61" dT="2024-11-26T14:26:22.68" personId="{6B4E551A-156F-4FDD-8133-CFBD78731A97}" id="{670F860E-C79E-4464-87D0-F97DA191DBD0}">
+  <threadedComment ref="F51" dT="2024-11-26T14:26:22.68" personId="{6B4E551A-156F-4FDD-8133-CFBD78731A97}" id="{670F860E-C79E-4464-87D0-F97DA191DBD0}">
     <text>definetly not correct</text>
-  </threadedComment>
-  <threadedComment ref="Q90" dT="2024-11-26T14:25:59.46" personId="{6B4E551A-156F-4FDD-8133-CFBD78731A97}" id="{56EC27E7-3752-4DF2-8528-EC22F83FD786}">
-    <text>Very large, check</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9378DE56-4AC5-415E-848F-E2ACB5B89CDD}">
-  <dimension ref="A1:V115"/>
+  <dimension ref="A1:V118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="T105" sqref="T105"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="22.33203125" customWidth="1"/>
-    <col min="12" max="12" width="27.6640625" style="15" customWidth="1"/>
+    <col min="6" max="7" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.53515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="22.3046875" customWidth="1"/>
+    <col min="12" max="12" width="27.69140625" style="12" customWidth="1"/>
     <col min="13" max="13" width="23" customWidth="1"/>
-    <col min="14" max="14" width="20.109375" style="15" customWidth="1"/>
+    <col min="14" max="14" width="20.07421875" style="12" customWidth="1"/>
     <col min="15" max="15" width="21" customWidth="1"/>
-    <col min="16" max="16" width="40.6640625" style="15" customWidth="1"/>
-    <col min="17" max="18" width="40.6640625" customWidth="1"/>
-    <col min="19" max="19" width="36.6640625" customWidth="1"/>
-    <col min="20" max="21" width="21.6640625" customWidth="1"/>
+    <col min="16" max="16" width="40.69140625" style="12" customWidth="1"/>
+    <col min="17" max="18" width="40.69140625" customWidth="1"/>
+    <col min="19" max="19" width="36.69140625" customWidth="1"/>
+    <col min="20" max="21" width="21.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1077,24 +1048,24 @@
         <v>7</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="8" t="s">
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -1104,21 +1075,21 @@
         <v>14</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>52</v>
       </c>
       <c r="B2" s="2">
         <v>13</v>
@@ -1150,19 +1121,19 @@
       <c r="K2" s="4">
         <v>2.1800000000000002</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="9">
         <v>0.77</v>
       </c>
       <c r="M2" s="2">
         <v>0.91</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="9">
         <v>0.73</v>
       </c>
       <c r="O2" s="2">
         <v>1.26</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="9">
         <v>1.26</v>
       </c>
       <c r="Q2" s="2">
@@ -1172,18 +1143,18 @@
         <v>6.39</v>
       </c>
       <c r="S2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2">
         <v>17</v>
@@ -1215,19 +1186,19 @@
       <c r="K3" s="4">
         <v>3.33</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="9">
         <v>1.34</v>
       </c>
       <c r="M3" s="2">
         <v>1.67</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="9">
         <v>0.81</v>
       </c>
       <c r="O3" s="2">
         <v>1.59</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="9">
         <v>1.31</v>
       </c>
       <c r="Q3" s="2">
@@ -1237,18 +1208,18 @@
         <v>9.02</v>
       </c>
       <c r="S3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2">
         <v>25</v>
@@ -1280,19 +1251,19 @@
       <c r="K4" s="4">
         <v>3.68</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="9">
         <v>1.89</v>
       </c>
       <c r="M4" s="2">
         <v>1.99</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="9">
         <v>0.41</v>
       </c>
       <c r="O4" s="2">
         <v>1.69</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="9">
         <v>0.86</v>
       </c>
       <c r="Q4" s="2">
@@ -1302,18 +1273,18 @@
         <v>11.79</v>
       </c>
       <c r="S4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2">
         <v>40</v>
@@ -1343,19 +1314,19 @@
       <c r="K5" s="4">
         <v>2.62</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="9">
         <v>1.54</v>
       </c>
       <c r="M5" s="2">
         <v>1.1599999999999999</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="9">
         <v>0.61</v>
       </c>
       <c r="O5" s="2">
         <v>1.42</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="9">
         <v>1.72</v>
       </c>
       <c r="Q5" s="2">
@@ -1365,18 +1336,18 @@
         <v>7.82</v>
       </c>
       <c r="S5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2">
         <v>44</v>
@@ -1406,19 +1377,19 @@
       <c r="K6" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="9">
         <v>0.73</v>
       </c>
       <c r="M6" s="2">
         <v>1.07</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="9">
         <v>0.55000000000000004</v>
       </c>
       <c r="O6" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="9">
         <v>1.72</v>
       </c>
       <c r="Q6" s="2">
@@ -1428,18 +1399,18 @@
         <v>5.9</v>
       </c>
       <c r="S6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2">
         <v>45</v>
@@ -1469,19 +1440,19 @@
       <c r="K7" s="4">
         <v>3.34</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="9">
         <v>1.36</v>
       </c>
       <c r="M7" s="2">
         <v>1.51</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="9">
         <v>1.38</v>
       </c>
       <c r="O7" s="2">
         <v>1.81</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="9">
         <v>1.1200000000000001</v>
       </c>
       <c r="Q7" s="2">
@@ -1491,18 +1462,18 @@
         <v>10.64</v>
       </c>
       <c r="S7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2">
         <v>46</v>
@@ -1532,19 +1503,19 @@
       <c r="K8" s="4">
         <v>2.88</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="9">
         <v>0.76</v>
       </c>
       <c r="M8" s="2">
         <v>1.44</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="9">
         <v>1.05</v>
       </c>
       <c r="O8" s="2">
         <v>1.44</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="9">
         <v>1.06</v>
       </c>
       <c r="Q8" s="2">
@@ -1554,18 +1525,18 @@
         <v>7.77</v>
       </c>
       <c r="S8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2">
         <v>48</v>
@@ -1595,19 +1566,19 @@
       <c r="K9" s="4">
         <v>3.32</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="9">
         <v>1.26</v>
       </c>
       <c r="M9" s="2">
         <v>1.73</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="9">
         <v>1.06</v>
       </c>
       <c r="O9" s="2">
         <v>1.54</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="9">
         <v>1.03</v>
       </c>
       <c r="Q9" s="2">
@@ -1617,18 +1588,18 @@
         <v>9.19</v>
       </c>
       <c r="S9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2">
         <v>49</v>
@@ -1658,19 +1629,19 @@
       <c r="K10" s="4">
         <v>3.12</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="9">
         <v>1.08</v>
       </c>
       <c r="M10" s="2">
         <v>1.43</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="9">
         <v>1.0900000000000001</v>
       </c>
       <c r="O10" s="2">
         <v>1.65</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="9">
         <v>0.76</v>
       </c>
       <c r="Q10" s="2">
@@ -1680,18 +1651,18 @@
         <v>8.51</v>
       </c>
       <c r="S10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2">
         <v>50</v>
@@ -1721,19 +1692,19 @@
       <c r="K11" s="4">
         <v>3</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="9">
         <v>1.1599999999999999</v>
       </c>
       <c r="M11" s="2">
         <v>1.8</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="9">
         <v>0.81</v>
       </c>
       <c r="O11" s="2">
         <v>1.17</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="9">
         <v>2.2799999999999998</v>
       </c>
       <c r="Q11" s="2">
@@ -1743,18 +1714,18 @@
         <v>8.06</v>
       </c>
       <c r="S11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2">
         <v>51</v>
@@ -1784,19 +1755,19 @@
       <c r="K12" s="4">
         <v>3.26</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="9">
         <v>1.43</v>
       </c>
       <c r="M12" s="2">
         <v>1.43</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="9">
         <v>0.94</v>
       </c>
       <c r="O12" s="2">
         <v>1.79</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="9">
         <v>1.03</v>
       </c>
       <c r="Q12" s="2">
@@ -1806,18 +1777,18 @@
         <v>9.2799999999999994</v>
       </c>
       <c r="S12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2">
         <v>52</v>
@@ -1847,19 +1818,19 @@
       <c r="K13" s="4">
         <v>2.29</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="9">
         <v>0.77</v>
       </c>
       <c r="M13" s="2">
         <v>1.1599999999999999</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="9">
         <v>0.82</v>
       </c>
       <c r="O13" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="9">
         <v>2.06</v>
       </c>
       <c r="Q13" s="2">
@@ -1869,18 +1840,18 @@
         <v>6.82</v>
       </c>
       <c r="S13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B14" s="2">
         <v>53</v>
@@ -1910,19 +1881,19 @@
       <c r="K14" s="4">
         <v>2.83</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="9">
         <v>1.1200000000000001</v>
       </c>
       <c r="M14" s="2">
         <v>1.49</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="9">
         <v>0.99</v>
       </c>
       <c r="O14" s="2">
         <v>1.3</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="9">
         <v>0.23</v>
       </c>
       <c r="Q14" s="2">
@@ -1932,18 +1903,18 @@
         <v>8.3800000000000008</v>
       </c>
       <c r="S14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B15" s="2">
         <v>54</v>
@@ -1968,24 +1939,24 @@
         <v>1.2000000479999999</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K15" s="4">
         <v>3</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="9">
         <v>1.1100000000000001</v>
       </c>
       <c r="M15" s="2">
         <v>1.48</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="9">
         <v>0.86</v>
       </c>
       <c r="O15" s="2">
         <v>1.59</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="9">
         <v>0.68</v>
       </c>
       <c r="Q15" s="2">
@@ -1995,18 +1966,18 @@
         <v>8.18</v>
       </c>
       <c r="S15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B16" s="2">
         <v>58</v>
@@ -2036,19 +2007,19 @@
       <c r="K16" s="4">
         <v>1.96</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="9">
         <v>0.94</v>
       </c>
       <c r="M16" s="2">
         <v>0.82</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="9">
         <v>0.4</v>
       </c>
       <c r="O16" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="9">
         <v>1.34</v>
       </c>
       <c r="Q16" s="2">
@@ -2058,18 +2029,18 @@
         <v>5.48</v>
       </c>
       <c r="S16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2">
         <v>62</v>
@@ -2099,19 +2070,19 @@
       <c r="K17" s="4">
         <v>2.93</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="9">
         <v>1.53</v>
       </c>
       <c r="M17" s="2">
         <v>1.26</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="9">
         <v>0.96</v>
       </c>
       <c r="O17" s="2">
         <v>1.66</v>
       </c>
-      <c r="P17" s="12">
+      <c r="P17" s="9">
         <v>1.43</v>
       </c>
       <c r="Q17" s="2">
@@ -2121,18 +2092,18 @@
         <v>9.5</v>
       </c>
       <c r="S17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2">
         <v>65</v>
@@ -2162,19 +2133,19 @@
       <c r="K18" s="4">
         <v>2.99</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="9">
         <v>1.19</v>
       </c>
       <c r="M18" s="2">
         <v>1.4</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="9">
         <v>0.92</v>
       </c>
       <c r="O18" s="2">
         <v>1.58</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="9">
         <v>1.42</v>
       </c>
       <c r="Q18" s="2">
@@ -2184,18 +2155,18 @@
         <v>8.4499999999999993</v>
       </c>
       <c r="S18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B19" s="2">
         <v>66</v>
@@ -2225,19 +2196,19 @@
       <c r="K19" s="4">
         <v>2.21</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="9">
         <v>1</v>
       </c>
       <c r="M19" s="2">
         <v>1.51</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="9">
         <v>0.6</v>
       </c>
       <c r="O19" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P19" s="9">
         <v>1.1299999999999999</v>
       </c>
       <c r="Q19" s="2">
@@ -2247,18 +2218,18 @@
         <v>6.43</v>
       </c>
       <c r="S19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B20" s="2">
         <v>67</v>
@@ -2288,19 +2259,19 @@
       <c r="K20" s="4">
         <v>3.5</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="9">
         <v>1.08</v>
       </c>
       <c r="M20" s="2">
         <v>1.73</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="9">
         <v>1.53</v>
       </c>
       <c r="O20" s="2">
         <v>1.77</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="9">
         <v>0.24</v>
       </c>
       <c r="Q20" s="2">
@@ -2310,18 +2281,18 @@
         <v>10.33</v>
       </c>
       <c r="S20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B21" s="2">
         <v>68</v>
@@ -2351,19 +2322,19 @@
       <c r="K21" s="4">
         <v>3</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="9">
         <v>1.1599999999999999</v>
       </c>
       <c r="M21" s="2">
         <v>1.34</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="9">
         <v>0.95</v>
       </c>
       <c r="O21" s="2">
         <v>1.63</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="9">
         <v>0.87</v>
       </c>
       <c r="Q21" s="2">
@@ -2373,18 +2344,18 @@
         <v>8.26</v>
       </c>
       <c r="S21" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T21" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B22" s="2">
         <v>69</v>
@@ -2414,19 +2385,19 @@
       <c r="K22" s="4">
         <v>3.02</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="9">
         <v>1.1599999999999999</v>
       </c>
       <c r="M22" s="2">
         <v>1.44</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="9">
         <v>0.76</v>
       </c>
       <c r="O22" s="2">
         <v>1.57</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="9">
         <v>1.44</v>
       </c>
       <c r="Q22" s="2">
@@ -2436,18 +2407,18 @@
         <v>7.96</v>
       </c>
       <c r="S22" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T22" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B23" s="2">
         <v>70</v>
@@ -2477,19 +2448,19 @@
       <c r="K23" s="4">
         <v>2.9</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="9">
         <v>1.26</v>
       </c>
       <c r="M23" s="2">
         <v>1.35</v>
       </c>
-      <c r="N23" s="12">
+      <c r="N23" s="9">
         <v>0.96</v>
       </c>
       <c r="O23" s="2">
         <v>1.54</v>
       </c>
-      <c r="P23" s="12">
+      <c r="P23" s="9">
         <v>0.99</v>
       </c>
       <c r="Q23" s="2">
@@ -2499,18 +2470,18 @@
         <v>8.24</v>
       </c>
       <c r="S23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B24" s="2">
         <v>71</v>
@@ -2540,19 +2511,19 @@
       <c r="K24" s="4">
         <v>3.21</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="9">
         <v>1.34</v>
       </c>
       <c r="M24" s="2">
         <v>1.6</v>
       </c>
-      <c r="N24" s="12">
+      <c r="N24" s="9">
         <v>1.1299999999999999</v>
       </c>
       <c r="O24" s="2">
         <v>1.6</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="9">
         <v>0.2</v>
       </c>
       <c r="Q24" s="2">
@@ -2562,18 +2533,18 @@
         <v>9.5399999999999991</v>
       </c>
       <c r="S24" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T24" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B25" s="2">
         <v>73</v>
@@ -2603,19 +2574,19 @@
       <c r="K25" s="4">
         <v>2.33</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="9">
         <v>0.95</v>
       </c>
       <c r="M25" s="2">
         <v>1.26</v>
       </c>
-      <c r="N25" s="12">
+      <c r="N25" s="9">
         <v>0.56999999999999995</v>
       </c>
       <c r="O25" s="2">
         <v>1.02</v>
       </c>
-      <c r="P25" s="12">
+      <c r="P25" s="9">
         <v>1</v>
       </c>
       <c r="Q25" s="2">
@@ -2625,18 +2596,18 @@
         <v>6.48</v>
       </c>
       <c r="S25" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T25" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B26" s="2">
         <v>75</v>
@@ -2666,19 +2637,19 @@
       <c r="K26" s="4">
         <v>3.65</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L26" s="9">
         <v>1.44</v>
       </c>
       <c r="M26" s="2">
         <v>1.92</v>
       </c>
-      <c r="N26" s="12">
+      <c r="N26" s="9">
         <v>1.1299999999999999</v>
       </c>
       <c r="O26" s="2">
         <v>1.71</v>
       </c>
-      <c r="P26" s="12">
+      <c r="P26" s="9">
         <v>0.66</v>
       </c>
       <c r="Q26" s="2">
@@ -2688,18 +2659,18 @@
         <v>10.58</v>
       </c>
       <c r="S26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B27" s="2">
         <v>77</v>
@@ -2729,19 +2700,19 @@
       <c r="K27" s="4">
         <v>2.75</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="9">
         <v>1.06</v>
       </c>
       <c r="M27" s="2">
         <v>1.34</v>
       </c>
-      <c r="N27" s="12">
+      <c r="N27" s="9">
         <v>0.81</v>
       </c>
       <c r="O27" s="2">
         <v>1.37</v>
       </c>
-      <c r="P27" s="12">
+      <c r="P27" s="9">
         <v>1.52</v>
       </c>
       <c r="Q27" s="2">
@@ -2751,18 +2722,18 @@
         <v>7.45</v>
       </c>
       <c r="S27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B28" s="2">
         <v>79</v>
@@ -2792,19 +2763,19 @@
       <c r="K28" s="4">
         <v>3.19</v>
       </c>
-      <c r="L28" s="12">
+      <c r="L28" s="9">
         <v>1.1499999999999999</v>
       </c>
       <c r="M28" s="2">
         <v>1.44</v>
       </c>
-      <c r="N28" s="12">
+      <c r="N28" s="9">
         <v>1.49</v>
       </c>
       <c r="O28" s="2">
         <v>1.76</v>
       </c>
-      <c r="P28" s="12">
+      <c r="P28" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q28" s="2">
@@ -2814,18 +2785,18 @@
         <v>9.58</v>
       </c>
       <c r="S28" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T28" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B29" s="2">
         <v>81</v>
@@ -2855,19 +2826,19 @@
       <c r="K29" s="4">
         <v>2.25</v>
       </c>
-      <c r="L29" s="12">
+      <c r="L29" s="9">
         <v>0.82</v>
       </c>
       <c r="M29" s="2">
         <v>0.89</v>
       </c>
-      <c r="N29" s="12">
+      <c r="N29" s="9">
         <v>0.67</v>
       </c>
       <c r="O29" s="2">
         <v>1.31</v>
       </c>
-      <c r="P29" s="12">
+      <c r="P29" s="9">
         <v>1.04</v>
       </c>
       <c r="Q29" s="2">
@@ -2877,18 +2848,18 @@
         <v>6.25</v>
       </c>
       <c r="S29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B30" s="2">
         <v>83</v>
@@ -2918,19 +2889,19 @@
       <c r="K30" s="4">
         <v>2.69</v>
       </c>
-      <c r="L30" s="12">
+      <c r="L30" s="9">
         <v>0.92</v>
       </c>
       <c r="M30" s="2">
         <v>1.23</v>
       </c>
-      <c r="N30" s="12">
+      <c r="N30" s="9">
         <v>0.79</v>
       </c>
       <c r="O30" s="2">
         <v>1.44</v>
       </c>
-      <c r="P30" s="12">
+      <c r="P30" s="9">
         <v>0.96</v>
       </c>
       <c r="Q30" s="2">
@@ -2940,18 +2911,18 @@
         <v>7.41</v>
       </c>
       <c r="S30" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T30" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2">
         <v>86</v>
@@ -2981,19 +2952,19 @@
       <c r="K31" s="4">
         <v>3.18</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L31" s="9">
         <v>1.55</v>
       </c>
       <c r="M31" s="2">
         <v>1.46</v>
       </c>
-      <c r="N31" s="12">
+      <c r="N31" s="9">
         <v>1.04</v>
       </c>
       <c r="O31" s="2">
         <v>1.72</v>
       </c>
-      <c r="P31" s="12">
+      <c r="P31" s="9">
         <v>0.82</v>
       </c>
       <c r="Q31" s="2">
@@ -3003,18 +2974,18 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="S31" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T31" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2">
         <v>87</v>
@@ -3044,19 +3015,19 @@
       <c r="K32" s="4">
         <v>4.43</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L32" s="9">
         <v>1.6</v>
       </c>
       <c r="M32" s="2">
         <v>2.36</v>
       </c>
-      <c r="N32" s="12">
+      <c r="N32" s="9">
         <v>1.45</v>
       </c>
       <c r="O32" s="2">
         <v>2.04</v>
       </c>
-      <c r="P32" s="12">
+      <c r="P32" s="9">
         <v>0.61</v>
       </c>
       <c r="Q32" s="2">
@@ -3066,18 +3037,18 @@
         <v>12.18</v>
       </c>
       <c r="S32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2">
         <v>88</v>
@@ -3107,19 +3078,19 @@
       <c r="K33" s="4">
         <v>2.5099999999999998</v>
       </c>
-      <c r="L33" s="12">
+      <c r="L33" s="9">
         <v>1.01</v>
       </c>
       <c r="M33" s="2">
         <v>1.18</v>
       </c>
-      <c r="N33" s="12">
+      <c r="N33" s="9">
         <v>0.7</v>
       </c>
       <c r="O33" s="2">
         <v>1.31</v>
       </c>
-      <c r="P33" s="12">
+      <c r="P33" s="9">
         <v>1.62</v>
       </c>
       <c r="Q33" s="2">
@@ -3129,18 +3100,18 @@
         <v>6.77</v>
       </c>
       <c r="S33" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T33" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2">
         <v>89</v>
@@ -3170,19 +3141,19 @@
       <c r="K34" s="4">
         <v>2.8</v>
       </c>
-      <c r="L34" s="12">
+      <c r="L34" s="9">
         <v>1.01</v>
       </c>
       <c r="M34" s="2">
         <v>1.33</v>
       </c>
-      <c r="N34" s="12">
+      <c r="N34" s="9">
         <v>0.88</v>
       </c>
       <c r="O34" s="2">
         <v>1.43</v>
       </c>
-      <c r="P34" s="12">
+      <c r="P34" s="9">
         <v>0.86</v>
       </c>
       <c r="Q34" s="2">
@@ -3192,18 +3163,18 @@
         <v>7.57</v>
       </c>
       <c r="S34" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T34" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B35" s="2">
         <v>93</v>
@@ -3233,19 +3204,19 @@
       <c r="K35" s="4">
         <v>2.97</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="9">
         <v>1</v>
       </c>
       <c r="M35" s="2">
         <v>1.54</v>
       </c>
-      <c r="N35" s="12">
+      <c r="N35" s="9">
         <v>1.01</v>
       </c>
       <c r="O35" s="2">
         <v>1.43</v>
       </c>
-      <c r="P35" s="12">
+      <c r="P35" s="9">
         <v>1.07</v>
       </c>
       <c r="Q35" s="2">
@@ -3255,18 +3226,18 @@
         <v>8.27</v>
       </c>
       <c r="S35" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T35" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B36" s="2">
         <v>94</v>
@@ -3296,19 +3267,19 @@
       <c r="K36" s="4">
         <v>3.2</v>
       </c>
-      <c r="L36" s="12">
+      <c r="L36" s="9">
         <v>1.1399999999999999</v>
       </c>
       <c r="M36" s="2">
         <v>1.66</v>
       </c>
-      <c r="N36" s="12">
+      <c r="N36" s="9">
         <v>1.1299999999999999</v>
       </c>
       <c r="O36" s="2">
         <v>1.46</v>
       </c>
-      <c r="P36" s="12">
+      <c r="P36" s="9">
         <v>1.03</v>
       </c>
       <c r="Q36" s="2">
@@ -3318,18 +3289,18 @@
         <v>8.61</v>
       </c>
       <c r="S36" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T36" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2">
         <v>95</v>
@@ -3359,19 +3330,19 @@
       <c r="K37" s="4">
         <v>2.59</v>
       </c>
-      <c r="L37" s="12">
+      <c r="L37" s="9">
         <v>1</v>
       </c>
       <c r="M37" s="2">
         <v>1.51</v>
       </c>
-      <c r="N37" s="12">
+      <c r="N37" s="9">
         <v>0.6</v>
       </c>
       <c r="O37" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P37" s="12">
+      <c r="P37" s="9">
         <v>1.1299999999999999</v>
       </c>
       <c r="Q37" s="2">
@@ -3381,18 +3352,18 @@
         <v>7.49</v>
       </c>
       <c r="S37" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T37" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2">
         <v>96</v>
@@ -3422,19 +3393,19 @@
       <c r="K38" s="4">
         <v>2.85</v>
       </c>
-      <c r="L38" s="12">
+      <c r="L38" s="9">
         <v>1.17</v>
       </c>
       <c r="M38" s="2">
         <v>1.33</v>
       </c>
-      <c r="N38" s="12">
+      <c r="N38" s="9">
         <v>1.18</v>
       </c>
       <c r="O38" s="2">
         <v>1.51</v>
       </c>
-      <c r="P38" s="12">
+      <c r="P38" s="9">
         <v>0.11</v>
       </c>
       <c r="Q38" s="2">
@@ -3444,18 +3415,18 @@
         <v>9.02</v>
       </c>
       <c r="S38" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T38" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2">
         <v>97</v>
@@ -3485,19 +3456,19 @@
       <c r="K39" s="4">
         <v>3.62</v>
       </c>
-      <c r="L39" s="12">
+      <c r="L39" s="9">
         <v>1.33</v>
       </c>
       <c r="M39" s="2">
         <v>2.0299999999999998</v>
       </c>
-      <c r="N39" s="12">
+      <c r="N39" s="9">
         <v>1.22</v>
       </c>
       <c r="O39" s="2">
         <v>1.59</v>
       </c>
-      <c r="P39" s="12">
+      <c r="P39" s="9">
         <v>0.26</v>
       </c>
       <c r="Q39" s="2">
@@ -3507,18 +3478,18 @@
         <v>10.46</v>
       </c>
       <c r="S39" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T39" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2">
         <v>98</v>
@@ -3548,19 +3519,19 @@
       <c r="K40" s="4">
         <v>2.25</v>
       </c>
-      <c r="L40" s="12">
+      <c r="L40" s="9">
         <v>1.04</v>
       </c>
       <c r="M40" s="2">
         <v>0.93</v>
       </c>
-      <c r="N40" s="12">
+      <c r="N40" s="9">
         <v>0.55000000000000004</v>
       </c>
       <c r="O40" s="2">
         <v>1.3</v>
       </c>
-      <c r="P40" s="12">
+      <c r="P40" s="9">
         <v>1.91</v>
       </c>
       <c r="Q40" s="2">
@@ -3570,18 +3541,18 @@
         <v>6.27</v>
       </c>
       <c r="S40" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T40" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2">
         <v>101</v>
@@ -3611,19 +3582,19 @@
       <c r="K41" s="4">
         <v>2.33</v>
       </c>
-      <c r="L41" s="13">
+      <c r="L41" s="10">
         <v>0.98</v>
       </c>
       <c r="M41" s="2">
         <v>1.35</v>
       </c>
-      <c r="N41" s="12">
+      <c r="N41" s="9">
         <v>0.54</v>
       </c>
       <c r="O41" s="2">
         <v>0.97</v>
       </c>
-      <c r="P41" s="12">
+      <c r="P41" s="9">
         <v>1.04</v>
       </c>
       <c r="Q41" s="2">
@@ -3633,18 +3604,18 @@
         <v>6.28</v>
       </c>
       <c r="S41" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T41" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B42" s="2">
         <v>102</v>
@@ -3674,19 +3645,19 @@
       <c r="K42" s="4">
         <v>2.97</v>
       </c>
-      <c r="L42" s="12">
+      <c r="L42" s="9">
         <v>0.88</v>
       </c>
       <c r="M42" s="2">
         <v>1.28</v>
       </c>
-      <c r="N42" s="12">
+      <c r="N42" s="9">
         <v>1.3</v>
       </c>
       <c r="O42" s="2">
         <v>1.68</v>
       </c>
-      <c r="P42" s="12">
+      <c r="P42" s="9">
         <v>1.4</v>
       </c>
       <c r="Q42" s="2">
@@ -3696,18 +3667,18 @@
         <v>8.8699999999999992</v>
       </c>
       <c r="S42" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T42" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2">
         <v>103</v>
@@ -3737,19 +3708,19 @@
       <c r="K43" s="4">
         <v>4.04</v>
       </c>
-      <c r="L43" s="12">
+      <c r="L43" s="9">
         <v>1.1599999999999999</v>
       </c>
       <c r="M43" s="2">
         <v>1.83</v>
       </c>
-      <c r="N43" s="12">
+      <c r="N43" s="9">
         <v>0.97</v>
       </c>
       <c r="O43" s="2">
         <v>2.2200000000000002</v>
       </c>
-      <c r="P43" s="12">
+      <c r="P43" s="9">
         <v>0.56000000000000005</v>
       </c>
       <c r="Q43" s="2">
@@ -3759,18 +3730,18 @@
         <v>11.15</v>
       </c>
       <c r="S43" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T43" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U43" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B44" s="2">
         <v>104</v>
@@ -3800,19 +3771,19 @@
       <c r="K44" s="4">
         <v>3.38</v>
       </c>
-      <c r="L44" s="12">
+      <c r="L44" s="9">
         <v>1.44</v>
       </c>
       <c r="M44" s="2">
         <v>1.81</v>
       </c>
-      <c r="N44" s="12">
+      <c r="N44" s="9">
         <v>0.89</v>
       </c>
       <c r="O44" s="2">
         <v>1.55</v>
       </c>
-      <c r="P44" s="12">
+      <c r="P44" s="9">
         <v>0.51</v>
       </c>
       <c r="Q44" s="2">
@@ -3822,18 +3793,18 @@
         <v>13.58</v>
       </c>
       <c r="S44" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T44" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U44" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2">
         <v>107</v>
@@ -3863,19 +3834,19 @@
       <c r="K45" s="4">
         <v>1.92</v>
       </c>
-      <c r="L45" s="12">
+      <c r="L45" s="9">
         <v>0.71</v>
       </c>
       <c r="M45" s="2">
         <v>1.06</v>
       </c>
-      <c r="N45" s="12">
+      <c r="N45" s="9">
         <v>0.4</v>
       </c>
       <c r="O45" s="2">
         <v>0.83</v>
       </c>
-      <c r="P45" s="12">
+      <c r="P45" s="9">
         <v>1.19</v>
       </c>
       <c r="Q45" s="2">
@@ -3885,18 +3856,18 @@
         <v>5.07</v>
       </c>
       <c r="S45" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T45" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U45" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2">
         <v>108</v>
@@ -3926,19 +3897,19 @@
       <c r="K46" s="4">
         <v>1.73</v>
       </c>
-      <c r="L46" s="12">
+      <c r="L46" s="9">
         <v>0.86</v>
       </c>
       <c r="M46" s="2">
         <v>0.62</v>
       </c>
-      <c r="N46" s="12">
+      <c r="N46" s="9">
         <v>0.46</v>
       </c>
       <c r="O46" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P46" s="12">
+      <c r="P46" s="9">
         <v>1.33</v>
       </c>
       <c r="Q46" s="2">
@@ -3948,18 +3919,18 @@
         <v>5.31</v>
       </c>
       <c r="S46" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T46" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U46" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2">
         <v>113</v>
@@ -3989,19 +3960,19 @@
       <c r="K47" s="4">
         <v>3.1</v>
       </c>
-      <c r="L47" s="12">
+      <c r="L47" s="9">
         <v>1.18</v>
       </c>
       <c r="M47" s="2">
         <v>1.58</v>
       </c>
-      <c r="N47" s="12">
+      <c r="N47" s="9">
         <v>1.02</v>
       </c>
       <c r="O47" s="2">
         <v>1.49</v>
       </c>
-      <c r="P47" s="12">
+      <c r="P47" s="9">
         <v>1.44</v>
       </c>
       <c r="Q47" s="2">
@@ -4011,3159 +3982,2286 @@
         <v>8.84</v>
       </c>
       <c r="S47" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T47" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U47" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" s="8">
-        <v>127</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9">
-        <v>2.33</v>
-      </c>
-      <c r="K48" s="9">
-        <v>2.12</v>
-      </c>
-      <c r="L48" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M48" s="8">
-        <v>1.06</v>
-      </c>
-      <c r="N48" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="3">
+        <v>72</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="F48" s="3">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G48" s="3">
+        <v>37.4</v>
+      </c>
+      <c r="H48" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="J48" s="6">
+        <v>4.03</v>
+      </c>
+      <c r="K48" s="6">
+        <v>4.04</v>
+      </c>
+      <c r="L48" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="M48" s="3">
+        <v>2.08</v>
+      </c>
+      <c r="N48" s="11">
+        <v>2.44</v>
+      </c>
+      <c r="O48" s="3">
         <v>1.93</v>
       </c>
-      <c r="O48" s="8">
-        <v>1.08</v>
-      </c>
-      <c r="P48" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q48" s="10">
-        <v>3.77</v>
-      </c>
-      <c r="R48" s="8">
-        <v>7.56</v>
-      </c>
-      <c r="S48" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="T48" t="s">
-        <v>36</v>
-      </c>
-      <c r="U48" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B49" s="8">
-        <v>128</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9">
-        <v>1.85</v>
-      </c>
-      <c r="K49" s="9">
-        <v>1.92</v>
-      </c>
-      <c r="L49" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="M49" s="8">
-        <v>1.07</v>
-      </c>
-      <c r="N49" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="O49" s="8">
-        <v>0.84</v>
-      </c>
-      <c r="P49" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q49" s="8">
-        <v>2.85</v>
-      </c>
-      <c r="R49" s="8">
-        <v>6.18</v>
-      </c>
-      <c r="S49" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="T49" t="s">
-        <v>36</v>
-      </c>
-      <c r="U49" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B50" s="8">
-        <v>128</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9">
-        <v>1.64</v>
-      </c>
-      <c r="K50" s="9">
-        <v>1.57</v>
-      </c>
-      <c r="L50" s="10">
-        <v>0.89</v>
-      </c>
-      <c r="M50" s="10">
-        <v>0.72</v>
-      </c>
-      <c r="N50" s="10">
-        <v>0.74</v>
-      </c>
-      <c r="O50" s="8">
-        <v>0.84</v>
-      </c>
-      <c r="P50" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q50" s="8">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="R50" s="8">
-        <v>5.52</v>
-      </c>
-      <c r="S50" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="T50" t="s">
-        <v>36</v>
-      </c>
-      <c r="U50" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="P48" s="11">
+        <v>0.41</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>11.93</v>
+      </c>
+      <c r="R48" s="3">
+        <v>13.97</v>
+      </c>
+      <c r="S48" t="s">
+        <v>175</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="3">
+        <v>78</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="F49" s="3">
+        <v>34.1</v>
+      </c>
+      <c r="G49" s="3">
+        <v>37</v>
+      </c>
+      <c r="H49" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="J49" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="K49" s="6">
+        <v>2.64</v>
+      </c>
+      <c r="L49" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="M49" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="N49" s="11">
+        <v>1.22</v>
+      </c>
+      <c r="O49" s="3">
+        <v>1.37</v>
+      </c>
+      <c r="P49" s="11">
+        <v>2.1</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>5.39</v>
+      </c>
+      <c r="R49" s="3">
+        <v>9.14</v>
+      </c>
+      <c r="S49" t="s">
+        <v>175</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="3">
+        <v>86</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="F50" s="13">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="G50" s="3">
+        <v>41.6</v>
+      </c>
+      <c r="H50" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J50" s="6">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="K50" s="6">
+        <v>3.34</v>
+      </c>
+      <c r="L50" s="11">
+        <v>1.27</v>
+      </c>
+      <c r="M50" s="3">
+        <v>1.54</v>
+      </c>
+      <c r="N50" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="O50" s="3">
+        <v>1.81</v>
+      </c>
+      <c r="P50" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>5.38</v>
+      </c>
+      <c r="R50" s="3">
+        <v>10.45</v>
+      </c>
+      <c r="S50" t="s">
+        <v>175</v>
+      </c>
+      <c r="T50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U50" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V50" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B51" s="3">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="F51" s="3">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G51" s="3">
-        <v>48</v>
+        <v>41.3</v>
       </c>
       <c r="H51" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J51" s="6">
-        <v>3.44</v>
+        <v>3.48</v>
       </c>
       <c r="K51" s="6">
-        <v>3.68</v>
-      </c>
-      <c r="L51" s="14">
-        <v>1.32</v>
+        <v>2.87</v>
+      </c>
+      <c r="L51" s="11">
+        <v>1.83</v>
       </c>
       <c r="M51" s="3">
-        <v>1.43</v>
-      </c>
-      <c r="N51" s="14">
-        <v>2.14</v>
+        <v>1.49</v>
+      </c>
+      <c r="N51" s="11">
+        <v>1.64</v>
       </c>
       <c r="O51" s="3">
-        <v>2.25</v>
-      </c>
-      <c r="P51" s="14" t="s">
-        <v>46</v>
+        <v>1.37</v>
+      </c>
+      <c r="P51" s="11">
+        <v>1.62</v>
       </c>
       <c r="Q51" s="3">
-        <v>8.07</v>
+        <v>7.07</v>
       </c>
       <c r="R51" s="3">
-        <v>12.01</v>
+        <v>10.93</v>
       </c>
       <c r="S51" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B52" s="3">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="F52" s="3">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G52" s="3">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H52" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J52" s="6">
-        <v>3.11</v>
+        <v>1.81</v>
       </c>
       <c r="K52" s="6">
-        <v>2.25</v>
-      </c>
-      <c r="L52" s="14">
-        <v>1.63</v>
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="L52" s="11">
+        <v>0.98</v>
       </c>
       <c r="M52" s="3">
-        <v>1.22</v>
-      </c>
-      <c r="N52" s="14">
-        <v>1.48</v>
+        <v>0.91</v>
+      </c>
+      <c r="N52" s="11">
+        <v>0.84</v>
       </c>
       <c r="O52" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="P52" s="14" t="s">
-        <v>46</v>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P52" s="11">
+        <v>1.62</v>
       </c>
       <c r="Q52" s="3">
-        <v>5.15</v>
+        <v>3.13</v>
       </c>
       <c r="R52" s="3">
-        <v>8.74</v>
+        <v>6.84</v>
       </c>
       <c r="S52" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="T52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B53" s="3">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="F53" s="3">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G53" s="3">
-        <v>37</v>
+        <v>28.5</v>
       </c>
       <c r="H53" s="3">
-        <v>12.5</v>
+        <v>7</v>
       </c>
       <c r="J53" s="6">
-        <v>1.17</v>
+        <v>2.27</v>
       </c>
       <c r="K53" s="6">
-        <v>4</v>
-      </c>
-      <c r="L53" s="14">
-        <v>1.37</v>
+        <v>2.16</v>
+      </c>
+      <c r="L53" s="11">
+        <v>0.23</v>
       </c>
       <c r="M53" s="3">
-        <v>0.59</v>
-      </c>
-      <c r="N53" s="14">
-        <v>2.63</v>
+        <v>0.9</v>
+      </c>
+      <c r="N53" s="11">
+        <v>1.04</v>
       </c>
       <c r="O53" s="3">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="P53" s="14" t="s">
-        <v>46</v>
+        <v>1.24</v>
+      </c>
+      <c r="P53" s="11">
+        <v>1.42</v>
       </c>
       <c r="Q53" s="3">
-        <v>3.86</v>
+        <v>3.99</v>
       </c>
       <c r="R53" s="3">
-        <v>10.4</v>
+        <v>8.09</v>
       </c>
       <c r="S53" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="V53" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B54" s="3">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="F54" s="3">
-        <v>41</v>
+        <v>30.1</v>
       </c>
       <c r="G54" s="3">
-        <v>42</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="H54" s="3">
-        <v>14.5</v>
+        <v>11.7</v>
       </c>
       <c r="J54" s="6">
-        <v>5.46</v>
+        <v>2.79</v>
       </c>
       <c r="K54" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="L54" s="14">
-        <v>3.12</v>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L54" s="11">
+        <v>1.31</v>
       </c>
       <c r="M54" s="3">
-        <v>1.64</v>
-      </c>
-      <c r="N54" s="14">
-        <v>2.34</v>
+        <v>0.93</v>
+      </c>
+      <c r="N54" s="11">
+        <v>1.47</v>
       </c>
       <c r="O54" s="3">
-        <v>2.95</v>
-      </c>
-      <c r="P54" s="14" t="s">
-        <v>46</v>
+        <v>1.36</v>
+      </c>
+      <c r="P54" s="11">
+        <v>1.86</v>
       </c>
       <c r="Q54" s="3">
-        <v>18.13</v>
+        <v>5.04</v>
       </c>
       <c r="R54" s="3">
-        <v>20.72</v>
+        <v>8.58</v>
       </c>
       <c r="S54" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="T54" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U54" s="3" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="V54" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B55" s="3">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="F55" s="3">
-        <v>35.200000000000003</v>
+        <v>22.5</v>
       </c>
       <c r="G55" s="3">
-        <v>37.4</v>
+        <v>24</v>
       </c>
       <c r="H55" s="3">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="J55" s="6">
-        <v>4.03</v>
+        <v>1.56</v>
       </c>
       <c r="K55" s="6">
-        <v>4.04</v>
-      </c>
-      <c r="L55" s="14">
-        <v>1.6</v>
+        <v>2.08</v>
+      </c>
+      <c r="L55" s="11">
+        <v>0.91</v>
       </c>
       <c r="M55" s="3">
-        <v>2.08</v>
-      </c>
-      <c r="N55" s="14">
-        <v>2.44</v>
+        <v>1.21</v>
+      </c>
+      <c r="N55" s="11">
+        <v>0.65</v>
       </c>
       <c r="O55" s="3">
-        <v>1.93</v>
-      </c>
-      <c r="P55" s="14">
-        <v>0.41</v>
+        <v>0.86</v>
+      </c>
+      <c r="P55" s="11">
+        <v>1.69</v>
       </c>
       <c r="Q55" s="3">
-        <v>11.93</v>
+        <v>2.61</v>
       </c>
       <c r="R55" s="3">
-        <v>13.97</v>
+        <v>6.72</v>
       </c>
       <c r="S55" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="T55" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B56" s="3">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="F56" s="3">
-        <v>34.1</v>
+        <v>17</v>
       </c>
       <c r="G56" s="3">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H56" s="3">
-        <v>10.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J56" s="6">
-        <v>2.8</v>
+        <v>1.24</v>
       </c>
       <c r="K56" s="6">
-        <v>2.64</v>
-      </c>
-      <c r="L56" s="14">
-        <v>1.6</v>
+        <v>1.46</v>
+      </c>
+      <c r="L56" s="11">
+        <v>0.67</v>
       </c>
       <c r="M56" s="3">
-        <v>1.23</v>
-      </c>
-      <c r="N56" s="14">
-        <v>1.22</v>
+        <v>0.82</v>
+      </c>
+      <c r="N56" s="11">
+        <v>0.56999999999999995</v>
       </c>
       <c r="O56" s="3">
-        <v>1.37</v>
-      </c>
-      <c r="P56" s="14">
-        <v>2.1</v>
+        <v>0.65</v>
+      </c>
+      <c r="P56" s="11">
+        <v>0.88</v>
       </c>
       <c r="Q56" s="3">
-        <v>5.39</v>
+        <v>1.34</v>
       </c>
       <c r="R56" s="3">
-        <v>9.14</v>
+        <v>4.54</v>
       </c>
       <c r="S56" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U56" s="3" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B57" s="3">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="F57" s="3">
-        <v>36.4</v>
+        <v>25</v>
       </c>
       <c r="G57" s="3">
-        <v>41.4</v>
+        <v>27</v>
       </c>
       <c r="H57" s="3">
-        <v>11.6</v>
+        <v>9</v>
       </c>
       <c r="J57" s="6">
-        <v>0.74</v>
+        <v>2.11</v>
       </c>
       <c r="K57" s="6">
-        <v>3.51</v>
-      </c>
-      <c r="L57" s="14">
-        <v>3.05</v>
+        <v>1.6</v>
+      </c>
+      <c r="L57" s="11">
+        <v>0.81</v>
       </c>
       <c r="M57" s="3">
-        <v>0.42</v>
-      </c>
-      <c r="N57" s="14">
-        <v>0.45</v>
+        <v>0.6</v>
+      </c>
+      <c r="N57" s="11">
+        <v>1.3</v>
       </c>
       <c r="O57" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="P57" s="14" t="s">
-        <v>46</v>
+        <v>0.99</v>
+      </c>
+      <c r="P57" s="11">
+        <v>0.94</v>
       </c>
       <c r="Q57" s="3">
-        <v>2.04</v>
+        <v>2.52</v>
       </c>
       <c r="R57" s="3">
-        <v>7.82</v>
+        <v>6.51</v>
       </c>
       <c r="S57" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="T57" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U57" s="3" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B58" s="3">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="F58" s="3">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G58" s="3">
-        <v>37</v>
+        <v>20.5</v>
       </c>
       <c r="H58" s="3">
-        <v>12</v>
+        <v>2.6</v>
       </c>
       <c r="J58" s="6">
-        <v>3</v>
+        <v>1.21</v>
       </c>
       <c r="K58" s="6">
-        <v>4.87</v>
-      </c>
-      <c r="L58" s="14">
-        <v>1.93</v>
+        <v>1.28</v>
+      </c>
+      <c r="L58" s="11">
+        <v>0.61</v>
       </c>
       <c r="M58" s="3">
-        <v>1.66</v>
-      </c>
-      <c r="N58" s="14">
-        <v>1.06</v>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N58" s="11">
+        <v>0.6</v>
       </c>
       <c r="O58" s="3">
-        <v>3.21</v>
-      </c>
-      <c r="P58" s="14" t="s">
-        <v>46</v>
+        <v>0.72</v>
+      </c>
+      <c r="P58" s="11">
+        <v>1.05</v>
       </c>
       <c r="Q58" s="3">
-        <v>9.84</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="R58" s="3">
-        <v>14.81</v>
+        <v>4.29</v>
       </c>
       <c r="S58" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="U58" s="3" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B59" s="3">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
-      <c r="F59" s="16">
-        <v>40.299999999999997</v>
+      <c r="F59" s="3">
+        <v>25</v>
       </c>
       <c r="G59" s="3">
-        <v>41.6</v>
+        <v>26</v>
       </c>
       <c r="H59" s="3">
-        <v>4.0999999999999996</v>
+        <v>8</v>
       </c>
       <c r="J59" s="6">
-        <v>2.2400000000000002</v>
+        <v>1.74</v>
       </c>
       <c r="K59" s="6">
-        <v>3.34</v>
-      </c>
-      <c r="L59" s="14">
-        <v>1.27</v>
+        <v>2.08</v>
+      </c>
+      <c r="L59" s="11">
+        <v>1.04</v>
       </c>
       <c r="M59" s="3">
-        <v>1.54</v>
-      </c>
-      <c r="N59" s="14">
-        <v>0.95</v>
+        <v>1.07</v>
+      </c>
+      <c r="N59" s="11">
+        <v>0.7</v>
       </c>
       <c r="O59" s="3">
+        <v>1</v>
+      </c>
+      <c r="P59" s="11">
         <v>1.81</v>
       </c>
-      <c r="P59" s="14" t="s">
-        <v>46</v>
-      </c>
       <c r="Q59" s="3">
-        <v>5.38</v>
+        <v>2.97</v>
       </c>
       <c r="R59" s="3">
-        <v>10.45</v>
+        <v>6.9</v>
       </c>
       <c r="S59" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U59" s="3" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="V59" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B60" s="3">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="F60" s="3">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G60" s="3">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H60" s="3">
-        <v>10</v>
+        <v>6.7</v>
       </c>
       <c r="J60" s="6">
-        <v>1.18</v>
+        <v>1.57</v>
       </c>
       <c r="K60" s="6">
-        <v>3.07</v>
-      </c>
-      <c r="L60" s="14">
-        <v>3.07</v>
+        <v>1.84</v>
+      </c>
+      <c r="L60" s="11">
+        <v>0.98</v>
       </c>
       <c r="M60" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="N60" s="11">
         <v>0.6</v>
       </c>
-      <c r="N60" s="14">
-        <v>1.72</v>
-      </c>
       <c r="O60" s="3">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="P60" s="14" t="s">
-        <v>46</v>
+        <v>0.82</v>
+      </c>
+      <c r="P60" s="11">
+        <v>0.62</v>
       </c>
       <c r="Q60" s="3">
-        <v>4.7699999999999996</v>
+        <v>2.34</v>
       </c>
       <c r="R60" s="3">
-        <v>12.86</v>
+        <v>6.01</v>
       </c>
       <c r="S60" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>26</v>
       </c>
       <c r="U60" s="3" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="V60" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B61" s="3">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="F61" s="3">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G61" s="3">
-        <v>41.3</v>
+        <v>24</v>
       </c>
       <c r="H61" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J61" s="6">
-        <v>3.48</v>
+        <v>2.21</v>
       </c>
       <c r="K61" s="6">
-        <v>2.87</v>
-      </c>
-      <c r="L61" s="14">
-        <v>1.83</v>
+        <v>2.06</v>
+      </c>
+      <c r="L61" s="11">
+        <v>1.1200000000000001</v>
       </c>
       <c r="M61" s="3">
-        <v>1.49</v>
-      </c>
-      <c r="N61" s="14">
-        <v>1.64</v>
+        <v>1.22</v>
+      </c>
+      <c r="N61" s="11">
+        <v>1.0900000000000001</v>
       </c>
       <c r="O61" s="3">
-        <v>1.37</v>
-      </c>
-      <c r="P61" s="14">
-        <v>1.62</v>
+        <v>0.86</v>
+      </c>
+      <c r="P61" s="11">
+        <v>1.08</v>
       </c>
       <c r="Q61" s="3">
-        <v>7.07</v>
+        <v>3.53</v>
       </c>
       <c r="R61" s="3">
-        <v>10.93</v>
+        <v>7.55</v>
       </c>
       <c r="S61" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="T61" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U61" s="3" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B62" s="3">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="F62" s="3">
-        <v>27</v>
+        <v>27.6</v>
       </c>
       <c r="G62" s="3">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="H62" s="3">
-        <v>9</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="J62" s="6">
-        <v>1.81</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="K62" s="6">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="L62" s="14">
-        <v>0.98</v>
+        <v>3.5</v>
+      </c>
+      <c r="L62" s="11">
+        <v>2.25</v>
       </c>
       <c r="M62" s="3">
-        <v>0.91</v>
-      </c>
-      <c r="N62" s="14">
-        <v>0.84</v>
+        <v>1.77</v>
+      </c>
+      <c r="N62" s="11">
+        <v>1.77</v>
       </c>
       <c r="O62" s="3">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="P62" s="14">
-        <v>1.62</v>
+        <v>1.73</v>
+      </c>
+      <c r="P62" s="11">
+        <v>1.19</v>
       </c>
       <c r="Q62" s="3">
-        <v>3.13</v>
+        <v>10.71</v>
       </c>
       <c r="R62" s="3">
-        <v>6.84</v>
+        <v>12.74</v>
       </c>
       <c r="S62" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="T62" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U62" s="3" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B63" s="3">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="F63" s="3">
-        <v>38.6</v>
+        <v>24</v>
       </c>
       <c r="G63" s="3">
-        <v>39.4</v>
+        <v>25</v>
       </c>
       <c r="H63" s="3">
-        <v>11.8</v>
+        <v>8</v>
       </c>
       <c r="J63" s="6">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="K63" s="6">
-        <v>1.85</v>
-      </c>
-      <c r="L63" s="14">
-        <v>0.67</v>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="L63" s="11">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M63" s="3">
-        <v>0.79</v>
-      </c>
-      <c r="N63" s="14">
         <v>1.04</v>
       </c>
+      <c r="N63" s="11">
+        <v>0.6</v>
+      </c>
       <c r="O63" s="3">
-        <v>1.06</v>
-      </c>
-      <c r="P63" s="14" t="s">
-        <v>46</v>
+        <v>1.25</v>
+      </c>
+      <c r="P63" s="11">
+        <v>2.02</v>
       </c>
       <c r="Q63" s="3">
-        <v>2.42</v>
+        <v>3.02</v>
       </c>
       <c r="R63" s="3">
-        <v>6.32</v>
+        <v>6.91</v>
       </c>
       <c r="S63" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="T63" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="U63" s="3" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="V63" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B64" s="3">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="F64" s="3">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G64" s="3">
-        <v>28.5</v>
+        <v>20</v>
       </c>
       <c r="H64" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J64" s="6">
-        <v>2.27</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K64" s="6">
-        <v>2.16</v>
-      </c>
-      <c r="L64" s="14">
-        <v>0.23</v>
+        <v>1.43</v>
+      </c>
+      <c r="L64" s="11">
+        <v>0.62</v>
       </c>
       <c r="M64" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="N64" s="14">
-        <v>1.04</v>
+        <v>0.82</v>
+      </c>
+      <c r="N64" s="11">
+        <v>0.5</v>
       </c>
       <c r="O64" s="3">
-        <v>1.24</v>
-      </c>
-      <c r="P64" s="14">
-        <v>1.42</v>
+        <v>0.6</v>
+      </c>
+      <c r="P64" s="11">
+        <v>1.23</v>
       </c>
       <c r="Q64" s="3">
-        <v>3.99</v>
+        <v>1.18</v>
       </c>
       <c r="R64" s="3">
-        <v>8.09</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="S64" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="T64" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U64" s="3" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="V64" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B65" s="3">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="F65" s="3">
-        <v>30.1</v>
+        <v>18</v>
       </c>
       <c r="G65" s="3">
-        <v>33.200000000000003</v>
+        <v>19</v>
       </c>
       <c r="H65" s="3">
-        <v>11.7</v>
+        <v>6</v>
       </c>
       <c r="J65" s="6">
-        <v>2.79</v>
+        <v>1.65</v>
       </c>
       <c r="K65" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="L65" s="14">
-        <v>1.31</v>
+        <v>1.75</v>
+      </c>
+      <c r="L65" s="11">
+        <v>0.66</v>
       </c>
       <c r="M65" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="N65" s="14">
-        <v>1.47</v>
+        <v>0.69</v>
+      </c>
+      <c r="N65" s="11">
+        <v>0.99</v>
       </c>
       <c r="O65" s="3">
-        <v>1.36</v>
-      </c>
-      <c r="P65" s="14">
-        <v>1.86</v>
+        <v>1.05</v>
+      </c>
+      <c r="P65" s="11">
+        <v>1.05</v>
       </c>
       <c r="Q65" s="3">
-        <v>5.04</v>
+        <v>2.33</v>
       </c>
       <c r="R65" s="3">
-        <v>8.58</v>
+        <v>6.04</v>
       </c>
       <c r="S65" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="T65" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U65" s="3" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="V65" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B66" s="3">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="F66" s="3">
-        <v>38.5</v>
+        <v>23</v>
       </c>
       <c r="G66" s="3">
-        <v>41.1</v>
+        <v>25</v>
       </c>
       <c r="H66" s="3">
-        <v>9.1</v>
+        <v>5</v>
       </c>
       <c r="J66" s="6">
-        <v>2.77</v>
+        <v>1.82</v>
       </c>
       <c r="K66" s="6">
-        <v>3.17</v>
-      </c>
-      <c r="L66" s="14">
-        <v>0.69</v>
+        <v>1.81</v>
+      </c>
+      <c r="L66" s="11">
+        <v>0.93</v>
       </c>
       <c r="M66" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="N66" s="14">
-        <v>2.08</v>
+        <v>0.85</v>
+      </c>
+      <c r="N66" s="11">
+        <v>0.9</v>
       </c>
       <c r="O66" s="3">
-        <v>1.47</v>
-      </c>
-      <c r="P66" s="14" t="s">
-        <v>46</v>
+        <v>0.95</v>
+      </c>
+      <c r="P66" s="11">
+        <v>1.79</v>
       </c>
       <c r="Q66" s="3">
-        <v>6.02</v>
+        <v>2.59</v>
       </c>
       <c r="R66" s="3">
-        <v>10.74</v>
+        <v>6.17</v>
       </c>
       <c r="S66" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="T66" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="U66" s="3" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="V66" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B67" s="3">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="F67" s="3">
-        <v>22.5</v>
+        <v>25</v>
       </c>
       <c r="G67" s="3">
+        <v>26</v>
+      </c>
+      <c r="H67" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="J67" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="K67" s="6">
+        <v>1.81</v>
+      </c>
+      <c r="L67" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="M67" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="N67" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="O67" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="P67" s="11">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>2.41</v>
+      </c>
+      <c r="R67" s="3">
+        <v>6.22</v>
+      </c>
+      <c r="S67" t="s">
+        <v>175</v>
+      </c>
+      <c r="T67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U67" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V67" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="3">
-        <v>8</v>
-      </c>
-      <c r="J67" s="6">
-        <v>1.56</v>
-      </c>
-      <c r="K67" s="6">
-        <v>2.08</v>
-      </c>
-      <c r="L67" s="14">
-        <v>0.91</v>
-      </c>
-      <c r="M67" s="3">
-        <v>1.21</v>
-      </c>
-      <c r="N67" s="14">
-        <v>0.65</v>
-      </c>
-      <c r="O67" s="3">
-        <v>0.86</v>
-      </c>
-      <c r="P67" s="14">
-        <v>1.69</v>
-      </c>
-      <c r="Q67" s="3">
-        <v>2.61</v>
-      </c>
-      <c r="R67" s="3">
-        <v>6.72</v>
-      </c>
-      <c r="S67" t="s">
-        <v>37</v>
-      </c>
-      <c r="T67" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U67" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="V67" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B68" s="3">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="F68" s="3">
-        <v>17</v>
+        <v>27.8</v>
       </c>
       <c r="G68" s="3">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H68" s="3">
-        <v>2.2000000000000002</v>
+        <v>5.8</v>
       </c>
       <c r="J68" s="6">
-        <v>1.24</v>
+        <v>1.4</v>
       </c>
       <c r="K68" s="6">
-        <v>1.46</v>
-      </c>
-      <c r="L68" s="14">
-        <v>0.67</v>
+        <v>2.29</v>
+      </c>
+      <c r="L68" s="11">
+        <v>1.01</v>
       </c>
       <c r="M68" s="3">
-        <v>0.82</v>
-      </c>
-      <c r="N68" s="14">
-        <v>0.56999999999999995</v>
+        <v>1.01</v>
+      </c>
+      <c r="N68" s="11">
+        <v>0.39</v>
       </c>
       <c r="O68" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="P68" s="14">
-        <v>0.88</v>
+        <v>1.31</v>
+      </c>
+      <c r="P68" s="11">
+        <v>1.89</v>
       </c>
       <c r="Q68" s="3">
-        <v>1.34</v>
+        <v>2.27</v>
       </c>
       <c r="R68" s="3">
-        <v>4.54</v>
+        <v>6.54</v>
       </c>
       <c r="S68" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="T68" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="U68" s="3" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="V68" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B69" s="3">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="F69" s="3">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G69" s="3">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H69" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J69" s="6">
-        <v>1.27</v>
+        <v>2.37</v>
       </c>
       <c r="K69" s="6">
-        <v>3.97</v>
-      </c>
-      <c r="L69" s="14">
-        <v>2.75</v>
+        <v>3.11</v>
+      </c>
+      <c r="L69" s="11">
+        <v>1.64</v>
       </c>
       <c r="M69" s="3">
-        <v>0.88</v>
-      </c>
-      <c r="N69" s="14">
-        <v>1.2</v>
+        <v>1.38</v>
+      </c>
+      <c r="N69" s="11">
+        <v>0.72</v>
       </c>
       <c r="O69" s="3">
-        <v>0.39</v>
-      </c>
-      <c r="P69" s="14" t="s">
-        <v>46</v>
+        <v>1.72</v>
+      </c>
+      <c r="P69" s="11">
+        <v>2.71</v>
       </c>
       <c r="Q69" s="3">
-        <v>3.87</v>
+        <v>5.84</v>
       </c>
       <c r="R69" s="3">
-        <v>10.23</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="S69" t="s">
-        <v>37</v>
-      </c>
-      <c r="T69" s="3" t="s">
-        <v>26</v>
+        <v>175</v>
+      </c>
+      <c r="T69" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="U69" s="3" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="V69" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B70" s="3">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="F70" s="3">
-        <v>25</v>
+        <v>33.4</v>
       </c>
       <c r="G70" s="3">
-        <v>27</v>
+        <v>32.549999999999997</v>
       </c>
       <c r="H70" s="3">
-        <v>9</v>
+        <v>5.4</v>
       </c>
       <c r="J70" s="6">
-        <v>2.11</v>
+        <v>3.03</v>
       </c>
       <c r="K70" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="L70" s="14">
-        <v>0.81</v>
+        <v>4.38</v>
+      </c>
+      <c r="L70" s="11">
+        <v>2.21</v>
       </c>
       <c r="M70" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N70" s="14">
-        <v>1.3</v>
+        <v>2.36</v>
+      </c>
+      <c r="N70" s="11">
+        <v>0.82</v>
       </c>
       <c r="O70" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="P70" s="14">
-        <v>0.94</v>
+        <v>2.02</v>
+      </c>
+      <c r="P70" s="11">
+        <v>2.4500000000000002</v>
       </c>
       <c r="Q70" s="3">
-        <v>2.52</v>
+        <v>10.15</v>
       </c>
       <c r="R70" s="3">
-        <v>6.51</v>
+        <v>12.85</v>
       </c>
       <c r="S70" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="T70" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U70" s="3" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="V70" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B71" s="3">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="F71" s="3">
-        <v>19</v>
+        <v>43.3</v>
       </c>
       <c r="G71" s="3">
-        <v>20.5</v>
+        <v>40.5</v>
       </c>
       <c r="H71" s="3">
-        <v>2.6</v>
+        <v>15</v>
       </c>
       <c r="J71" s="6">
-        <v>1.21</v>
+        <v>3.43</v>
       </c>
       <c r="K71" s="6">
-        <v>1.28</v>
-      </c>
-      <c r="L71" s="14">
-        <v>0.61</v>
+        <v>3</v>
+      </c>
+      <c r="L71" s="11">
+        <v>1.75</v>
       </c>
       <c r="M71" s="3">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N71" s="14">
-        <v>0.6</v>
+        <v>1.68</v>
+      </c>
+      <c r="N71" s="11">
+        <v>1.68</v>
       </c>
       <c r="O71" s="3">
-        <v>0.72</v>
-      </c>
-      <c r="P71" s="14">
-        <v>1.05</v>
+        <v>1.33</v>
+      </c>
+      <c r="P71" s="11">
+        <v>2.12</v>
       </c>
       <c r="Q71" s="3">
-        <v>1.1599999999999999</v>
+        <v>7.65</v>
       </c>
       <c r="R71" s="3">
-        <v>4.29</v>
+        <v>10.76</v>
       </c>
       <c r="S71" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="T71" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="U71" s="3" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="V71" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B72" s="3">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="F72" s="3">
-        <v>25</v>
-      </c>
-      <c r="G72" s="3">
-        <v>26</v>
+        <v>38.200000000000003</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="H72" s="3">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="J72" s="6">
-        <v>1.74</v>
+        <v>3.26</v>
       </c>
       <c r="K72" s="6">
-        <v>2.08</v>
-      </c>
-      <c r="L72" s="14">
-        <v>1.04</v>
+        <v>3.85</v>
+      </c>
+      <c r="L72" s="11">
+        <v>1.86</v>
       </c>
       <c r="M72" s="3">
-        <v>1.07</v>
-      </c>
-      <c r="N72" s="14">
-        <v>0.7</v>
+        <v>2.11</v>
+      </c>
+      <c r="N72" s="11">
+        <v>1.39</v>
       </c>
       <c r="O72" s="3">
-        <v>1</v>
-      </c>
-      <c r="P72" s="14">
-        <v>1.81</v>
+        <v>1.71</v>
+      </c>
+      <c r="P72" s="11">
+        <v>2.93</v>
       </c>
       <c r="Q72" s="3">
-        <v>2.97</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="R72" s="3">
-        <v>6.9</v>
+        <v>12.58</v>
       </c>
       <c r="S72" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="T72" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U72" s="3" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="V72" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B73" s="3">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="F73" s="3">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="G73" s="3">
-        <v>30</v>
+        <v>31.3</v>
       </c>
       <c r="H73" s="3">
-        <v>6.9</v>
+        <v>4.7</v>
       </c>
       <c r="J73" s="6">
-        <v>1</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="K73" s="6">
-        <v>3.55</v>
-      </c>
-      <c r="L73" s="14">
-        <v>1.48</v>
+        <v>2.4</v>
+      </c>
+      <c r="L73" s="11">
+        <v>1.2</v>
       </c>
       <c r="M73" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N73" s="14">
-        <v>2.08</v>
+        <v>1.03</v>
+      </c>
+      <c r="N73" s="11">
+        <v>0.81</v>
       </c>
       <c r="O73" s="3">
-        <v>0.44</v>
-      </c>
-      <c r="P73" s="14" t="s">
-        <v>46</v>
+        <v>1.37</v>
+      </c>
+      <c r="P73" s="11">
+        <v>2.52</v>
       </c>
       <c r="Q73" s="3">
-        <v>2.8</v>
+        <v>3.54</v>
       </c>
       <c r="R73" s="3">
-        <v>8.73</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="S73" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="T73" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U73" s="3" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="V73" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B74" s="3">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="F74" s="3">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G74" s="3">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H74" s="3">
-        <v>6.7</v>
+        <v>13</v>
       </c>
       <c r="J74" s="6">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="K74" s="6">
-        <v>1.84</v>
-      </c>
-      <c r="L74" s="14">
-        <v>0.98</v>
+        <v>2.46</v>
+      </c>
+      <c r="L74" s="11">
+        <v>1.01</v>
       </c>
       <c r="M74" s="3">
-        <v>1.03</v>
-      </c>
-      <c r="N74" s="14">
-        <v>0.6</v>
+        <v>1.44</v>
+      </c>
+      <c r="N74" s="11">
+        <v>0.65</v>
       </c>
       <c r="O74" s="3">
-        <v>0.82</v>
-      </c>
-      <c r="P74" s="14">
-        <v>0.62</v>
+        <v>0.99</v>
+      </c>
+      <c r="P74" s="11">
+        <v>3.41</v>
       </c>
       <c r="Q74" s="3">
-        <v>2.34</v>
+        <v>3.22</v>
       </c>
       <c r="R74" s="3">
-        <v>6.01</v>
+        <v>7.25</v>
       </c>
       <c r="S74" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="T74" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="U74" s="3" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="V74" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B75" s="3">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="F75" s="3">
+        <v>36</v>
+      </c>
+      <c r="G75" s="3">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="H75" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="J75" s="6">
+        <v>2.08</v>
+      </c>
+      <c r="K75" s="6">
+        <v>2.92</v>
+      </c>
+      <c r="L75" s="11">
+        <v>1.68</v>
+      </c>
+      <c r="M75" s="3">
+        <v>1.78</v>
+      </c>
+      <c r="N75" s="11">
+        <v>0.41</v>
+      </c>
+      <c r="O75" s="3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="P75" s="11">
+        <v>3.12</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="R75" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="S75" t="s">
+        <v>175</v>
+      </c>
+      <c r="T75" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G75" s="3">
-        <v>24</v>
-      </c>
-      <c r="H75" s="3">
-        <v>10</v>
-      </c>
-      <c r="J75" s="6">
-        <v>2.21</v>
-      </c>
-      <c r="K75" s="6">
-        <v>2.06</v>
-      </c>
-      <c r="L75" s="14">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="M75" s="3">
-        <v>1.22</v>
-      </c>
-      <c r="N75" s="14">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="O75" s="3">
-        <v>0.86</v>
-      </c>
-      <c r="P75" s="14">
-        <v>1.08</v>
-      </c>
-      <c r="Q75" s="3">
-        <v>3.53</v>
-      </c>
-      <c r="R75" s="3">
-        <v>7.55</v>
-      </c>
-      <c r="S75" t="s">
-        <v>37</v>
-      </c>
-      <c r="T75" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="U75" s="3" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="V75" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B76" s="3">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="F76" s="3">
-        <v>27.6</v>
+        <v>34</v>
       </c>
       <c r="G76" s="3">
-        <v>29.5</v>
+        <v>33</v>
       </c>
       <c r="H76" s="3">
-        <v>5.0999999999999996</v>
+        <v>10</v>
       </c>
       <c r="J76" s="6">
-        <v>4.0199999999999996</v>
+        <v>2.64</v>
       </c>
       <c r="K76" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="L76" s="14">
-        <v>2.25</v>
+        <v>3.31</v>
+      </c>
+      <c r="L76" s="11">
+        <v>1.7</v>
       </c>
       <c r="M76" s="3">
-        <v>1.77</v>
-      </c>
-      <c r="N76" s="14">
-        <v>1.77</v>
+        <v>1.63</v>
+      </c>
+      <c r="N76" s="11">
+        <v>0.95</v>
       </c>
       <c r="O76" s="3">
-        <v>1.73</v>
-      </c>
-      <c r="P76" s="14">
-        <v>1.19</v>
+        <v>1.66</v>
+      </c>
+      <c r="P76" s="11">
+        <v>2.34</v>
       </c>
       <c r="Q76" s="3">
-        <v>10.71</v>
+        <v>7.59</v>
       </c>
       <c r="R76" s="3">
-        <v>12.74</v>
+        <v>10.33</v>
       </c>
       <c r="S76" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="T76" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U76" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>118</v>
+      </c>
+      <c r="B77">
+        <v>11</v>
+      </c>
+      <c r="S77" t="s">
+        <v>134</v>
+      </c>
+      <c r="U77" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78">
+        <v>16</v>
+      </c>
+      <c r="S78" t="s">
+        <v>134</v>
+      </c>
+      <c r="U78" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79">
+        <v>48</v>
+      </c>
+      <c r="S79" t="s">
+        <v>134</v>
+      </c>
+      <c r="U79" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>121</v>
+      </c>
+      <c r="B80">
+        <v>69</v>
+      </c>
+      <c r="S80" t="s">
+        <v>134</v>
+      </c>
+      <c r="U80" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>122</v>
+      </c>
+      <c r="B81">
+        <v>76</v>
+      </c>
+      <c r="S81" t="s">
+        <v>134</v>
+      </c>
+      <c r="U81" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>123</v>
+      </c>
+      <c r="B82">
+        <v>80</v>
+      </c>
+      <c r="S82" t="s">
+        <v>134</v>
+      </c>
+      <c r="U82" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>124</v>
+      </c>
+      <c r="B83">
+        <v>91</v>
+      </c>
+      <c r="S83" t="s">
+        <v>134</v>
+      </c>
+      <c r="U83" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>125</v>
+      </c>
+      <c r="B84">
+        <v>92</v>
+      </c>
+      <c r="S84" t="s">
+        <v>134</v>
+      </c>
+      <c r="U84" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>126</v>
+      </c>
+      <c r="B85">
+        <v>109</v>
+      </c>
+      <c r="S85" t="s">
+        <v>134</v>
+      </c>
+      <c r="U85" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>127</v>
+      </c>
+      <c r="B86">
+        <v>112</v>
+      </c>
+      <c r="S86" t="s">
+        <v>134</v>
+      </c>
+      <c r="U86" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>156</v>
+      </c>
+      <c r="B87" t="s">
+        <v>148</v>
+      </c>
+      <c r="S87" t="s">
+        <v>134</v>
+      </c>
+      <c r="U87" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>157</v>
+      </c>
+      <c r="B88" t="s">
+        <v>149</v>
+      </c>
+      <c r="S88" t="s">
+        <v>134</v>
+      </c>
+      <c r="U88" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>158</v>
+      </c>
+      <c r="B89" t="s">
+        <v>150</v>
+      </c>
+      <c r="S89" t="s">
+        <v>134</v>
+      </c>
+      <c r="U89" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>159</v>
+      </c>
+      <c r="B90" t="s">
+        <v>151</v>
+      </c>
+      <c r="S90" t="s">
+        <v>134</v>
+      </c>
+      <c r="U90" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>160</v>
+      </c>
+      <c r="B91" t="s">
         <v>152</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>125</v>
-      </c>
-      <c r="B77" s="3">
+      <c r="S91" t="s">
+        <v>134</v>
+      </c>
+      <c r="U91" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>161</v>
+      </c>
+      <c r="B92" t="s">
+        <v>153</v>
+      </c>
+      <c r="S92" t="s">
+        <v>134</v>
+      </c>
+      <c r="U92" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>162</v>
+      </c>
+      <c r="B93" t="s">
+        <v>154</v>
+      </c>
+      <c r="S93" t="s">
+        <v>134</v>
+      </c>
+      <c r="U93" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>163</v>
+      </c>
+      <c r="B94" t="s">
+        <v>155</v>
+      </c>
+      <c r="S94" t="s">
+        <v>134</v>
+      </c>
+      <c r="U94" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>141</v>
+      </c>
+      <c r="B95" t="s">
+        <v>135</v>
+      </c>
+      <c r="S95" t="s">
+        <v>134</v>
+      </c>
+      <c r="U95" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>130</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="S96" t="s">
+        <v>134</v>
+      </c>
+      <c r="U96" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>133</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="S97" t="s">
+        <v>134</v>
+      </c>
+      <c r="U97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>128</v>
+      </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="S98" t="s">
+        <v>134</v>
+      </c>
+      <c r="U98" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>129</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="S99" t="s">
+        <v>134</v>
+      </c>
+      <c r="U99" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>131</v>
+      </c>
+      <c r="B100">
+        <v>6</v>
+      </c>
+      <c r="S100" t="s">
+        <v>134</v>
+      </c>
+      <c r="U100" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>132</v>
+      </c>
+      <c r="B101">
+        <v>7</v>
+      </c>
+      <c r="S101" t="s">
+        <v>134</v>
+      </c>
+      <c r="U101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B102">
+        <v>175</v>
+      </c>
+      <c r="S102" t="s">
+        <v>134</v>
+      </c>
+      <c r="U102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>143</v>
+      </c>
+      <c r="B103" t="s">
+        <v>136</v>
+      </c>
+      <c r="S103" t="s">
+        <v>134</v>
+      </c>
+      <c r="U103" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>144</v>
+      </c>
+      <c r="B104" t="s">
+        <v>137</v>
+      </c>
+      <c r="S104" t="s">
+        <v>134</v>
+      </c>
+      <c r="U104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>145</v>
+      </c>
+      <c r="B105" t="s">
+        <v>138</v>
+      </c>
+      <c r="S105" t="s">
+        <v>134</v>
+      </c>
+      <c r="U105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>146</v>
+      </c>
+      <c r="B106" t="s">
+        <v>139</v>
+      </c>
+      <c r="S106" t="s">
+        <v>134</v>
+      </c>
+      <c r="U106" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
         <v>147</v>
       </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="F77" s="3">
-        <v>24</v>
-      </c>
-      <c r="G77" s="3">
-        <v>25</v>
-      </c>
-      <c r="H77" s="3">
-        <v>8</v>
-      </c>
-      <c r="J77" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="K77" s="6">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="L77" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M77" s="3">
-        <v>1.04</v>
-      </c>
-      <c r="N77" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="O77" s="3">
-        <v>1.25</v>
-      </c>
-      <c r="P77" s="14">
-        <v>2.02</v>
-      </c>
-      <c r="Q77" s="3">
-        <v>3.02</v>
-      </c>
-      <c r="R77" s="3">
-        <v>6.91</v>
-      </c>
-      <c r="S77" t="s">
-        <v>37</v>
-      </c>
-      <c r="T77" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U77" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="V77" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>126</v>
-      </c>
-      <c r="B78" s="3">
-        <v>148</v>
-      </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="F78" s="3">
-        <v>20</v>
-      </c>
-      <c r="G78" s="3">
-        <v>20</v>
-      </c>
-      <c r="H78" s="3">
-        <v>5</v>
-      </c>
-      <c r="J78" s="6">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="K78" s="6">
-        <v>1.43</v>
-      </c>
-      <c r="L78" s="14">
-        <v>0.62</v>
-      </c>
-      <c r="M78" s="3">
-        <v>0.82</v>
-      </c>
-      <c r="N78" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="O78" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="P78" s="14">
-        <v>1.23</v>
-      </c>
-      <c r="Q78" s="3">
-        <v>1.18</v>
-      </c>
-      <c r="R78" s="3">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="S78" t="s">
-        <v>37</v>
-      </c>
-      <c r="T78" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U78" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="V78" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>127</v>
-      </c>
-      <c r="B79" s="3">
-        <v>150</v>
-      </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="F79" s="3">
-        <v>18</v>
-      </c>
-      <c r="G79" s="3">
-        <v>19</v>
-      </c>
-      <c r="H79" s="3">
-        <v>6</v>
-      </c>
-      <c r="J79" s="6">
-        <v>1.65</v>
-      </c>
-      <c r="K79" s="6">
-        <v>1.75</v>
-      </c>
-      <c r="L79" s="14">
-        <v>0.66</v>
-      </c>
-      <c r="M79" s="3">
-        <v>0.69</v>
-      </c>
-      <c r="N79" s="14">
-        <v>0.99</v>
-      </c>
-      <c r="O79" s="3">
-        <v>1.05</v>
-      </c>
-      <c r="P79" s="14">
-        <v>1.05</v>
-      </c>
-      <c r="Q79" s="3">
-        <v>2.33</v>
-      </c>
-      <c r="R79" s="3">
-        <v>6.04</v>
-      </c>
-      <c r="S79" t="s">
-        <v>37</v>
-      </c>
-      <c r="T79" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U79" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="V79" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>128</v>
-      </c>
-      <c r="B80" s="3">
-        <v>152</v>
-      </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="F80" s="3">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="G80" s="3">
-        <v>17.5</v>
-      </c>
-      <c r="H80" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="J80" s="6">
-        <v>1.23</v>
-      </c>
-      <c r="K80" s="6">
-        <v>1.08</v>
-      </c>
-      <c r="L80" s="14">
-        <v>0.61</v>
-      </c>
-      <c r="M80" s="3">
-        <v>0.51</v>
-      </c>
-      <c r="N80" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="O80" s="3">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="P80" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q80" s="3">
-        <v>1.06</v>
-      </c>
-      <c r="R80" s="3">
-        <v>3.76</v>
-      </c>
-      <c r="S80" t="s">
-        <v>37</v>
-      </c>
-      <c r="T80" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="U80" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V80" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>129</v>
-      </c>
-      <c r="B81" s="3">
-        <v>156</v>
-      </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="F81" s="3">
-        <v>23</v>
-      </c>
-      <c r="G81" s="3">
-        <v>25</v>
-      </c>
-      <c r="H81" s="3">
-        <v>5</v>
-      </c>
-      <c r="J81" s="6">
-        <v>1.82</v>
-      </c>
-      <c r="K81" s="6">
-        <v>1.81</v>
-      </c>
-      <c r="L81" s="14">
-        <v>0.93</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="N81" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="P81" s="14">
-        <v>1.79</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>2.59</v>
-      </c>
-      <c r="R81" s="3">
-        <v>6.17</v>
-      </c>
-      <c r="S81" t="s">
-        <v>37</v>
-      </c>
-      <c r="T81" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U81" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="V81" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>130</v>
-      </c>
-      <c r="B82" s="3">
-        <v>157</v>
-      </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="F82" s="3">
-        <v>25</v>
-      </c>
-      <c r="G82" s="3">
-        <v>26</v>
-      </c>
-      <c r="H82" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="J82" s="6">
-        <v>1.75</v>
-      </c>
-      <c r="K82" s="6">
-        <v>1.81</v>
-      </c>
-      <c r="L82" s="14">
-        <v>0.79</v>
-      </c>
-      <c r="M82" s="3">
-        <v>0.98</v>
-      </c>
-      <c r="N82" s="14">
-        <v>0.96</v>
-      </c>
-      <c r="O82" s="3">
-        <v>0.82</v>
-      </c>
-      <c r="P82" s="14">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="Q82" s="3">
-        <v>2.41</v>
-      </c>
-      <c r="R82" s="3">
-        <v>6.22</v>
-      </c>
-      <c r="S82" t="s">
-        <v>37</v>
-      </c>
-      <c r="T82" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U82" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="V82" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>131</v>
-      </c>
-      <c r="B83" s="3">
-        <v>158</v>
-      </c>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="F83" s="3">
-        <v>27.8</v>
-      </c>
-      <c r="G83" s="3">
-        <v>28</v>
-      </c>
-      <c r="H83" s="3">
-        <v>5.8</v>
-      </c>
-      <c r="J83" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="K83" s="6">
-        <v>2.29</v>
-      </c>
-      <c r="L83" s="14">
-        <v>1.01</v>
-      </c>
-      <c r="M83" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="N83" s="14">
-        <v>0.39</v>
-      </c>
-      <c r="O83" s="3">
-        <v>1.31</v>
-      </c>
-      <c r="P83" s="14">
-        <v>1.89</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>2.27</v>
-      </c>
-      <c r="R83" s="3">
-        <v>6.54</v>
-      </c>
-      <c r="S83" t="s">
-        <v>37</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>132</v>
-      </c>
-      <c r="B84" s="3">
-        <v>163</v>
-      </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="F84" s="3">
-        <v>34</v>
-      </c>
-      <c r="G84" s="3">
-        <v>34</v>
-      </c>
-      <c r="H84" s="3">
-        <v>10</v>
-      </c>
-      <c r="J84" s="6">
-        <v>2.37</v>
-      </c>
-      <c r="K84" s="6">
-        <v>3.11</v>
-      </c>
-      <c r="L84" s="14">
-        <v>1.64</v>
-      </c>
-      <c r="M84" s="3">
-        <v>1.38</v>
-      </c>
-      <c r="N84" s="14">
-        <v>0.72</v>
-      </c>
-      <c r="O84" s="3">
-        <v>1.72</v>
-      </c>
-      <c r="P84" s="14">
-        <v>2.71</v>
-      </c>
-      <c r="Q84" s="3">
-        <v>5.84</v>
-      </c>
-      <c r="R84" s="3">
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="S84" t="s">
-        <v>37</v>
-      </c>
-      <c r="T84" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="U84" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="V84" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>133</v>
-      </c>
-      <c r="B85" s="3">
+      <c r="B107" t="s">
+        <v>140</v>
+      </c>
+      <c r="S107" t="s">
+        <v>134</v>
+      </c>
+      <c r="U107" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>164</v>
+      </c>
+      <c r="B108">
+        <v>103</v>
+      </c>
+      <c r="S108" t="s">
+        <v>175</v>
+      </c>
+      <c r="U108" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>165</v>
+      </c>
+      <c r="B109">
+        <v>151</v>
+      </c>
+      <c r="S109" t="s">
+        <v>175</v>
+      </c>
+      <c r="U109" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
         <v>166</v>
       </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="F85" s="3">
-        <v>33.4</v>
-      </c>
-      <c r="G85" s="3">
-        <v>32.549999999999997</v>
-      </c>
-      <c r="H85" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="J85" s="6">
-        <v>3.03</v>
-      </c>
-      <c r="K85" s="6">
-        <v>4.38</v>
-      </c>
-      <c r="L85" s="14">
-        <v>2.21</v>
-      </c>
-      <c r="M85" s="3">
-        <v>2.36</v>
-      </c>
-      <c r="N85" s="14">
-        <v>0.82</v>
-      </c>
-      <c r="O85" s="3">
-        <v>2.02</v>
-      </c>
-      <c r="P85" s="14">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="Q85" s="3">
-        <v>10.15</v>
-      </c>
-      <c r="R85" s="3">
-        <v>12.85</v>
-      </c>
-      <c r="S85" t="s">
-        <v>37</v>
-      </c>
-      <c r="T85" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U85" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="V85" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>134</v>
-      </c>
-      <c r="B86" s="3">
+      <c r="B110">
+        <v>154</v>
+      </c>
+      <c r="S110" t="s">
+        <v>175</v>
+      </c>
+      <c r="U110" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
         <v>167</v>
       </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="F86" s="3">
-        <v>43.3</v>
-      </c>
-      <c r="G86" s="3">
-        <v>40.5</v>
-      </c>
-      <c r="H86" s="3">
-        <v>15</v>
-      </c>
-      <c r="J86" s="6">
-        <v>3.43</v>
-      </c>
-      <c r="K86" s="6">
-        <v>3</v>
-      </c>
-      <c r="L86" s="14">
-        <v>1.75</v>
-      </c>
-      <c r="M86" s="3">
-        <v>1.68</v>
-      </c>
-      <c r="N86" s="14">
-        <v>1.68</v>
-      </c>
-      <c r="O86" s="3">
-        <v>1.33</v>
-      </c>
-      <c r="P86" s="14">
-        <v>2.12</v>
-      </c>
-      <c r="Q86" s="3">
-        <v>7.65</v>
-      </c>
-      <c r="R86" s="3">
-        <v>10.76</v>
-      </c>
-      <c r="S86" t="s">
-        <v>37</v>
-      </c>
-      <c r="T86" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U86" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="V86" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>135</v>
-      </c>
-      <c r="B87" s="3">
+      <c r="B111">
+        <v>164</v>
+      </c>
+      <c r="S111" t="s">
+        <v>175</v>
+      </c>
+      <c r="U111" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>168</v>
+      </c>
+      <c r="B112">
+        <v>165</v>
+      </c>
+      <c r="S112" t="s">
+        <v>175</v>
+      </c>
+      <c r="U112" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>169</v>
+      </c>
+      <c r="B113">
+        <v>169</v>
+      </c>
+      <c r="S113" t="s">
+        <v>175</v>
+      </c>
+      <c r="U113" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
         <v>170</v>
       </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="F87" s="3">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H87" s="3">
-        <v>7.7</v>
-      </c>
-      <c r="J87" s="6">
-        <v>3.26</v>
-      </c>
-      <c r="K87" s="6">
-        <v>3.85</v>
-      </c>
-      <c r="L87" s="14">
-        <v>1.86</v>
-      </c>
-      <c r="M87" s="3">
-        <v>2.11</v>
-      </c>
-      <c r="N87" s="14">
-        <v>1.39</v>
-      </c>
-      <c r="O87" s="3">
-        <v>1.71</v>
-      </c>
-      <c r="P87" s="14">
-        <v>2.93</v>
-      </c>
-      <c r="Q87" s="3">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="R87" s="3">
-        <v>12.58</v>
-      </c>
-      <c r="S87" t="s">
-        <v>37</v>
-      </c>
-      <c r="T87" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U87" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="V87" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>136</v>
-      </c>
-      <c r="B88" s="3">
+      <c r="B114">
+        <v>180</v>
+      </c>
+      <c r="S114" t="s">
+        <v>175</v>
+      </c>
+      <c r="U114" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
         <v>171</v>
       </c>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="F88" s="3">
-        <v>46</v>
-      </c>
-      <c r="G88" s="3">
-        <v>45</v>
-      </c>
-      <c r="H88" s="3">
-        <v>18</v>
-      </c>
-      <c r="J88" s="6">
-        <v>2.29</v>
-      </c>
-      <c r="K88" s="6">
-        <v>2.56</v>
-      </c>
-      <c r="L88" s="14">
-        <v>1.19</v>
-      </c>
-      <c r="M88" s="3">
-        <v>1.25</v>
-      </c>
-      <c r="N88" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O88" s="3">
-        <v>1.32</v>
-      </c>
-      <c r="P88" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q88" s="3">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="R88" s="3">
-        <v>8.17</v>
-      </c>
-      <c r="S88" t="s">
-        <v>37</v>
-      </c>
-      <c r="T88" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="U88" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V88" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>137</v>
-      </c>
-      <c r="B89" s="3">
+      <c r="B115">
+        <v>184</v>
+      </c>
+      <c r="S115" t="s">
+        <v>175</v>
+      </c>
+      <c r="U115" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
         <v>172</v>
       </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="F89" s="3">
-        <v>29.3</v>
-      </c>
-      <c r="G89" s="3">
-        <v>29.4</v>
-      </c>
-      <c r="H89" s="3">
-        <v>10.3</v>
-      </c>
-      <c r="J89" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="K89" s="6">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="L89" s="14">
-        <v>1.78</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0.43</v>
-      </c>
-      <c r="N89" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0.46</v>
-      </c>
-      <c r="P89" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>2.44</v>
-      </c>
-      <c r="R89" s="3">
-        <v>7.94</v>
-      </c>
-      <c r="S89" t="s">
-        <v>37</v>
-      </c>
-      <c r="T89" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="U89" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V89" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>138</v>
-      </c>
-      <c r="B90" s="3">
-        <v>183</v>
-      </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="F90" s="3">
-        <v>41.2</v>
-      </c>
-      <c r="G90" s="3">
-        <v>39</v>
-      </c>
-      <c r="H90" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="J90" s="6">
-        <v>1.91</v>
-      </c>
-      <c r="K90" s="6">
-        <v>10.54</v>
-      </c>
-      <c r="L90" s="14">
-        <v>4.75</v>
-      </c>
-      <c r="M90" s="3">
-        <v>1.19</v>
-      </c>
-      <c r="N90" s="14">
-        <v>5.82</v>
-      </c>
-      <c r="O90" s="3">
-        <v>0.71</v>
-      </c>
-      <c r="P90" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q90" s="3">
-        <v>17</v>
-      </c>
-      <c r="R90" s="3">
-        <v>24.56</v>
-      </c>
-      <c r="S90" t="s">
-        <v>37</v>
-      </c>
-      <c r="T90" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="U90" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V90" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>139</v>
-      </c>
-      <c r="B91" s="3">
-        <v>191</v>
-      </c>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="F91" s="3">
-        <v>48</v>
-      </c>
-      <c r="G91" s="3">
-        <v>45</v>
-      </c>
-      <c r="H91" s="3">
-        <v>8</v>
-      </c>
-      <c r="J91" s="6">
-        <v>3.55</v>
-      </c>
-      <c r="K91" s="6">
-        <v>3.29</v>
-      </c>
-      <c r="L91" s="14">
-        <v>1.71</v>
-      </c>
-      <c r="M91" s="3">
-        <v>2.08</v>
-      </c>
-      <c r="N91" s="14">
-        <v>1.84</v>
-      </c>
-      <c r="O91" s="3">
-        <v>1.21</v>
-      </c>
-      <c r="P91" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>7.67</v>
-      </c>
-      <c r="R91" s="3">
-        <v>10.86</v>
-      </c>
-      <c r="S91" t="s">
-        <v>37</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>140</v>
-      </c>
-      <c r="B92" s="3">
-        <v>192</v>
-      </c>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="F92" s="3">
-        <v>47.6</v>
-      </c>
-      <c r="G92" s="3">
-        <v>46.1</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J92" s="6">
-        <v>3.05</v>
-      </c>
-      <c r="K92" s="6">
-        <v>3.01</v>
-      </c>
-      <c r="L92" s="14">
-        <v>1.54</v>
-      </c>
-      <c r="M92" s="3">
-        <v>1.47</v>
-      </c>
-      <c r="N92" s="14">
-        <v>1.49</v>
-      </c>
-      <c r="O92" s="3">
-        <v>1.53</v>
-      </c>
-      <c r="P92" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q92" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R92" s="3">
-        <v>10.33</v>
-      </c>
-      <c r="S92" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="T92" s="3"/>
-      <c r="U92" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="V92" s="3"/>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>141</v>
-      </c>
-      <c r="B93" s="3">
-        <v>193</v>
-      </c>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="F93" s="3">
-        <v>40</v>
-      </c>
-      <c r="G93" s="3">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="H93" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="J93" s="6">
-        <v>2.62</v>
-      </c>
-      <c r="K93" s="6">
-        <v>2.73</v>
-      </c>
-      <c r="L93" s="14">
-        <v>1.21</v>
-      </c>
-      <c r="M93" s="3">
-        <v>1.17</v>
-      </c>
-      <c r="N93" s="14">
-        <v>1.41</v>
-      </c>
-      <c r="O93" s="3">
-        <v>1.55</v>
-      </c>
-      <c r="P93" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q93" s="3">
-        <v>5.21</v>
-      </c>
-      <c r="R93" s="3">
-        <v>9.1</v>
-      </c>
-      <c r="S93" t="s">
-        <v>37</v>
-      </c>
-      <c r="T93" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="U93" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V93" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>142</v>
-      </c>
-      <c r="B94" s="3">
-        <v>194</v>
-      </c>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="F94" s="3">
-        <v>29.7</v>
-      </c>
-      <c r="G94" s="3">
-        <v>31.3</v>
-      </c>
-      <c r="H94" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="J94" s="6">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="K94" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="L94" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="M94" s="3">
-        <v>1.03</v>
-      </c>
-      <c r="N94" s="14">
-        <v>0.81</v>
-      </c>
-      <c r="O94" s="3">
-        <v>1.37</v>
-      </c>
-      <c r="P94" s="14">
-        <v>2.52</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>3.54</v>
-      </c>
-      <c r="R94" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="S94" t="s">
-        <v>37</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>143</v>
-      </c>
-      <c r="B95" s="3">
-        <v>195</v>
-      </c>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="F95" s="3">
-        <v>34</v>
-      </c>
-      <c r="G95" s="3">
-        <v>35</v>
-      </c>
-      <c r="H95" s="3">
-        <v>13</v>
-      </c>
-      <c r="J95" s="6">
-        <v>1.64</v>
-      </c>
-      <c r="K95" s="6">
-        <v>2.46</v>
-      </c>
-      <c r="L95" s="14">
-        <v>1.01</v>
-      </c>
-      <c r="M95" s="3">
-        <v>1.44</v>
-      </c>
-      <c r="N95" s="14">
-        <v>0.65</v>
-      </c>
-      <c r="O95" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="P95" s="14">
-        <v>3.41</v>
-      </c>
-      <c r="Q95" s="3">
-        <v>3.22</v>
-      </c>
-      <c r="R95" s="3">
-        <v>7.25</v>
-      </c>
-      <c r="S95" t="s">
-        <v>37</v>
-      </c>
-      <c r="T95" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U95" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="V95" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>144</v>
-      </c>
-      <c r="B96" s="3">
-        <v>198</v>
-      </c>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="F96" s="3">
-        <v>36</v>
-      </c>
-      <c r="G96" s="3">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="H96" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="J96" s="6">
-        <v>2.08</v>
-      </c>
-      <c r="K96" s="6">
-        <v>2.92</v>
-      </c>
-      <c r="L96" s="14">
-        <v>1.68</v>
-      </c>
-      <c r="M96" s="3">
-        <v>1.78</v>
-      </c>
-      <c r="N96" s="14">
-        <v>0.41</v>
-      </c>
-      <c r="O96" s="3">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="P96" s="14">
-        <v>3.12</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="R96" s="3">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="S96" t="s">
-        <v>37</v>
-      </c>
-      <c r="T96" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U96" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="V96" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>145</v>
-      </c>
-      <c r="B97" s="3">
-        <v>201</v>
-      </c>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="F97" s="3">
-        <v>34</v>
-      </c>
-      <c r="G97" s="3">
-        <v>33</v>
-      </c>
-      <c r="H97" s="3">
-        <v>10</v>
-      </c>
-      <c r="J97" s="6">
-        <v>2.64</v>
-      </c>
-      <c r="K97" s="6">
-        <v>3.31</v>
-      </c>
-      <c r="L97" s="14">
-        <v>1.7</v>
-      </c>
-      <c r="M97" s="3">
-        <v>1.63</v>
-      </c>
-      <c r="N97" s="14">
-        <v>0.95</v>
-      </c>
-      <c r="O97" s="3">
-        <v>1.66</v>
-      </c>
-      <c r="P97" s="14">
-        <v>2.34</v>
-      </c>
-      <c r="Q97" s="3">
-        <v>7.59</v>
-      </c>
-      <c r="R97" s="3">
-        <v>10.33</v>
-      </c>
-      <c r="S97" t="s">
-        <v>37</v>
-      </c>
-      <c r="T97" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U97" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="V97" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>155</v>
-      </c>
-      <c r="B98">
-        <v>11</v>
-      </c>
-      <c r="S98" t="s">
+      <c r="B116">
+        <v>186</v>
+      </c>
+      <c r="S116" t="s">
+        <v>175</v>
+      </c>
+      <c r="U116" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
         <v>173</v>
       </c>
-      <c r="U98" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>156</v>
-      </c>
-      <c r="B99">
-        <v>16</v>
-      </c>
-      <c r="S99" t="s">
-        <v>173</v>
-      </c>
-      <c r="U99" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>157</v>
-      </c>
-      <c r="B100">
-        <v>48</v>
-      </c>
-      <c r="S100" t="s">
-        <v>173</v>
-      </c>
-      <c r="U100" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>158</v>
-      </c>
-      <c r="B101">
-        <v>69</v>
-      </c>
-      <c r="S101" t="s">
-        <v>173</v>
-      </c>
-      <c r="U101" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>159</v>
-      </c>
-      <c r="B102">
-        <v>76</v>
-      </c>
-      <c r="S102" t="s">
-        <v>173</v>
-      </c>
-      <c r="U102" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>160</v>
-      </c>
-      <c r="B103">
-        <v>80</v>
-      </c>
-      <c r="S103" t="s">
-        <v>173</v>
-      </c>
-      <c r="U103" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>161</v>
-      </c>
-      <c r="B104">
-        <v>91</v>
-      </c>
-      <c r="S104" t="s">
-        <v>173</v>
-      </c>
-      <c r="U104" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>162</v>
-      </c>
-      <c r="B105">
-        <v>92</v>
-      </c>
-      <c r="S105" t="s">
-        <v>173</v>
-      </c>
-      <c r="U105" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>163</v>
-      </c>
-      <c r="B106">
-        <v>109</v>
-      </c>
-      <c r="S106" t="s">
-        <v>173</v>
-      </c>
-      <c r="U106" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>164</v>
-      </c>
-      <c r="B107">
-        <v>112</v>
-      </c>
-      <c r="S107" t="s">
-        <v>173</v>
-      </c>
-      <c r="U107" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>165</v>
-      </c>
-      <c r="B108">
-        <v>8</v>
-      </c>
-      <c r="S108" t="s">
-        <v>173</v>
-      </c>
-      <c r="U108" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>166</v>
-      </c>
-      <c r="B109">
-        <v>1</v>
-      </c>
-      <c r="S109" t="s">
-        <v>173</v>
-      </c>
-      <c r="U109" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>167</v>
-      </c>
-      <c r="B110">
-        <v>4</v>
-      </c>
-      <c r="S110" t="s">
-        <v>173</v>
-      </c>
-      <c r="U110" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>168</v>
-      </c>
-      <c r="B111">
-        <v>5</v>
-      </c>
-      <c r="S111" t="s">
-        <v>173</v>
-      </c>
-      <c r="U111" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>169</v>
-      </c>
-      <c r="B112">
-        <v>2</v>
-      </c>
-      <c r="S112" t="s">
-        <v>173</v>
-      </c>
-      <c r="U112" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>170</v>
-      </c>
-      <c r="B113">
-        <v>6</v>
-      </c>
-      <c r="S113" t="s">
-        <v>173</v>
-      </c>
-      <c r="U113" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>171</v>
-      </c>
-      <c r="B114">
-        <v>7</v>
-      </c>
-      <c r="S114" t="s">
-        <v>173</v>
-      </c>
-      <c r="U114" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>172</v>
-      </c>
-      <c r="B115">
-        <v>3</v>
-      </c>
-      <c r="S115" t="s">
-        <v>173</v>
-      </c>
-      <c r="U115" t="s">
-        <v>173</v>
+      <c r="B117">
+        <v>190</v>
+      </c>
+      <c r="S117" t="s">
+        <v>175</v>
+      </c>
+      <c r="U117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>174</v>
+      </c>
+      <c r="B118">
+        <v>200</v>
+      </c>
+      <c r="S118" t="s">
+        <v>175</v>
+      </c>
+      <c r="U118" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V97" xr:uid="{9378DE56-4AC5-415E-848F-E2ACB5B89CDD}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/data/dataset.xlsx
+++ b/data/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\falcu\Documents\GitHub\Glycymeris-Perforations\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84495CD6-7823-4AA6-BD15-C9B0095FD704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD64D97E-0A00-4D5A-88DA-040702B9D41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="-90" windowWidth="19380" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shared file for corrections Fla" sheetId="3" r:id="rId1"/>
@@ -1000,26 +1000,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9378DE56-4AC5-415E-848F-E2ACB5B89CDD}">
   <dimension ref="A1:V118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R118" sqref="R118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="7" width="12.53515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.53515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="22.3046875" customWidth="1"/>
-    <col min="12" max="12" width="27.69140625" style="12" customWidth="1"/>
+    <col min="6" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="22.33203125" customWidth="1"/>
+    <col min="12" max="12" width="27.6640625" style="12" customWidth="1"/>
     <col min="13" max="13" width="23" customWidth="1"/>
-    <col min="14" max="14" width="20.07421875" style="12" customWidth="1"/>
+    <col min="14" max="14" width="20.109375" style="12" customWidth="1"/>
     <col min="15" max="15" width="21" customWidth="1"/>
-    <col min="16" max="16" width="40.69140625" style="12" customWidth="1"/>
-    <col min="17" max="18" width="40.69140625" customWidth="1"/>
-    <col min="19" max="19" width="36.69140625" customWidth="1"/>
-    <col min="20" max="21" width="21.69140625" customWidth="1"/>
+    <col min="16" max="16" width="40.6640625" style="12" customWidth="1"/>
+    <col min="17" max="18" width="40.6640625" customWidth="1"/>
+    <col min="19" max="19" width="36.6640625" customWidth="1"/>
+    <col min="20" max="21" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1087,7 +1088,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1152,7 +1153,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1217,7 +1218,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1282,7 +1283,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1408,7 +1409,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1471,7 +1472,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1534,7 +1535,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1597,7 +1598,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1660,7 +1661,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1723,7 +1724,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1786,7 +1787,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1849,7 +1850,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -1912,7 +1913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1975,7 +1976,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -2038,7 +2039,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -2101,7 +2102,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -2164,7 +2165,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -2227,7 +2228,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -2290,7 +2291,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -2353,7 +2354,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -2416,7 +2417,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -2542,7 +2543,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -2605,7 +2606,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -2668,7 +2669,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -2731,7 +2732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -2794,7 +2795,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -2857,7 +2858,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -2920,7 +2921,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -2983,7 +2984,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -3046,7 +3047,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -3109,7 +3110,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -3172,7 +3173,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -3235,7 +3236,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -3298,7 +3299,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -3361,7 +3362,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -3424,7 +3425,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -3487,7 +3488,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -3550,7 +3551,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -3613,7 +3614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -3676,7 +3677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -3739,7 +3740,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -3802,7 +3803,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -3865,7 +3866,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -3928,7 +3929,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -3991,7 +3992,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>85</v>
       </c>
@@ -4049,7 +4050,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -4107,7 +4108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -4165,7 +4166,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>88</v>
       </c>
@@ -4223,7 +4224,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -4281,7 +4282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>90</v>
       </c>
@@ -4339,7 +4340,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -4397,7 +4398,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>92</v>
       </c>
@@ -4455,7 +4456,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>93</v>
       </c>
@@ -4513,7 +4514,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -4571,7 +4572,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -4629,7 +4630,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -4687,7 +4688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>97</v>
       </c>
@@ -4745,7 +4746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>98</v>
       </c>
@@ -4803,7 +4804,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>99</v>
       </c>
@@ -4861,7 +4862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>100</v>
       </c>
@@ -4919,7 +4920,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -4977,7 +4978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>102</v>
       </c>
@@ -5035,7 +5036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>103</v>
       </c>
@@ -5093,7 +5094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>104</v>
       </c>
@@ -5151,7 +5152,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>105</v>
       </c>
@@ -5209,7 +5210,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>106</v>
       </c>
@@ -5267,7 +5268,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>107</v>
       </c>
@@ -5325,7 +5326,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>108</v>
       </c>
@@ -5383,7 +5384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>109</v>
       </c>
@@ -5441,7 +5442,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>110</v>
       </c>
@@ -5499,7 +5500,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>111</v>
       </c>
@@ -5557,7 +5558,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>112</v>
       </c>
@@ -5615,7 +5616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>113</v>
       </c>
@@ -5673,13 +5674,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>118</v>
       </c>
       <c r="B77">
         <v>11</v>
       </c>
+      <c r="Q77" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="R77" s="3">
+        <v>2.85</v>
+      </c>
       <c r="S77" t="s">
         <v>134</v>
       </c>
@@ -5687,13 +5694,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>119</v>
       </c>
       <c r="B78">
         <v>16</v>
       </c>
+      <c r="Q78" s="3">
+        <v>8.31</v>
+      </c>
+      <c r="R78" s="3">
+        <v>11.57</v>
+      </c>
       <c r="S78" t="s">
         <v>134</v>
       </c>
@@ -5701,13 +5714,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>120</v>
       </c>
       <c r="B79">
         <v>48</v>
       </c>
+      <c r="Q79" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="R79" s="3">
+        <v>5.92</v>
+      </c>
       <c r="S79" t="s">
         <v>134</v>
       </c>
@@ -5715,13 +5734,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>121</v>
       </c>
       <c r="B80">
         <v>69</v>
       </c>
+      <c r="Q80" s="3">
+        <v>5.05</v>
+      </c>
+      <c r="R80" s="3">
+        <v>9.6199999999999992</v>
+      </c>
       <c r="S80" t="s">
         <v>134</v>
       </c>
@@ -5729,13 +5754,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>122</v>
       </c>
       <c r="B81">
         <v>76</v>
       </c>
+      <c r="Q81" s="3">
+        <v>1.57</v>
+      </c>
+      <c r="R81" s="3">
+        <v>4.96</v>
+      </c>
       <c r="S81" t="s">
         <v>134</v>
       </c>
@@ -5743,13 +5774,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>123</v>
       </c>
       <c r="B82">
         <v>80</v>
       </c>
+      <c r="Q82" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="R82" s="3">
+        <v>12.51</v>
+      </c>
       <c r="S82" t="s">
         <v>134</v>
       </c>
@@ -5757,13 +5794,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>124</v>
       </c>
       <c r="B83">
         <v>91</v>
       </c>
+      <c r="Q83" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="R83" s="3">
+        <v>2.0099999999999998</v>
+      </c>
       <c r="S83" t="s">
         <v>134</v>
       </c>
@@ -5771,13 +5814,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>125</v>
       </c>
       <c r="B84">
         <v>92</v>
       </c>
+      <c r="Q84" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="R84" s="3">
+        <v>11.21</v>
+      </c>
       <c r="S84" t="s">
         <v>134</v>
       </c>
@@ -5785,13 +5834,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>126</v>
       </c>
       <c r="B85">
         <v>109</v>
       </c>
+      <c r="Q85" s="3">
+        <v>1.29</v>
+      </c>
+      <c r="R85" s="3">
+        <v>4.5</v>
+      </c>
       <c r="S85" t="s">
         <v>134</v>
       </c>
@@ -5799,13 +5854,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>127</v>
       </c>
       <c r="B86">
         <v>112</v>
       </c>
+      <c r="Q86" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="R86" s="3">
+        <v>2.06</v>
+      </c>
       <c r="S86" t="s">
         <v>134</v>
       </c>
@@ -5813,13 +5874,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>156</v>
       </c>
       <c r="B87" t="s">
         <v>148</v>
       </c>
+      <c r="Q87" s="3">
+        <v>45.51</v>
+      </c>
+      <c r="R87" s="3">
+        <v>27.08</v>
+      </c>
       <c r="S87" t="s">
         <v>134</v>
       </c>
@@ -5827,13 +5894,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>157</v>
       </c>
       <c r="B88" t="s">
         <v>149</v>
       </c>
+      <c r="Q88" s="3">
+        <v>2.63</v>
+      </c>
+      <c r="R88" s="3">
+        <v>7.36</v>
+      </c>
       <c r="S88" t="s">
         <v>134</v>
       </c>
@@ -5841,13 +5914,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>158</v>
       </c>
       <c r="B89" t="s">
         <v>150</v>
       </c>
+      <c r="Q89" s="3">
+        <v>8.89</v>
+      </c>
+      <c r="R89" s="3">
+        <v>12.48</v>
+      </c>
       <c r="S89" t="s">
         <v>134</v>
       </c>
@@ -5855,13 +5934,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>159</v>
       </c>
       <c r="B90" t="s">
         <v>151</v>
       </c>
+      <c r="Q90" s="3">
+        <v>1.94</v>
+      </c>
+      <c r="R90" s="3">
+        <v>5.59</v>
+      </c>
       <c r="S90" t="s">
         <v>134</v>
       </c>
@@ -5869,13 +5954,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>160</v>
       </c>
       <c r="B91" t="s">
         <v>152</v>
       </c>
+      <c r="Q91" s="3">
+        <v>2.35</v>
+      </c>
+      <c r="R91" s="3">
+        <v>6.36</v>
+      </c>
       <c r="S91" t="s">
         <v>134</v>
       </c>
@@ -5883,13 +5974,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>161</v>
       </c>
       <c r="B92" t="s">
         <v>153</v>
       </c>
+      <c r="Q92" s="3">
+        <v>34.880000000000003</v>
+      </c>
+      <c r="R92" s="3">
+        <v>26.12</v>
+      </c>
       <c r="S92" t="s">
         <v>134</v>
       </c>
@@ -5897,13 +5994,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>162</v>
       </c>
       <c r="B93" t="s">
         <v>154</v>
       </c>
+      <c r="Q93" s="3">
+        <v>17.37</v>
+      </c>
+      <c r="R93" s="3">
+        <v>17.77</v>
+      </c>
       <c r="S93" t="s">
         <v>134</v>
       </c>
@@ -5911,13 +6014,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>163</v>
       </c>
       <c r="B94" t="s">
         <v>155</v>
       </c>
+      <c r="Q94" s="3">
+        <v>9.94</v>
+      </c>
+      <c r="R94" s="3">
+        <v>13.48</v>
+      </c>
       <c r="S94" t="s">
         <v>134</v>
       </c>
@@ -5925,13 +6034,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>141</v>
       </c>
       <c r="B95" t="s">
         <v>135</v>
       </c>
+      <c r="Q95" s="3">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="R95" s="3">
+        <v>17.77</v>
+      </c>
       <c r="S95" t="s">
         <v>134</v>
       </c>
@@ -5939,13 +6054,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>130</v>
       </c>
       <c r="B96">
         <v>2</v>
       </c>
+      <c r="Q96" s="3">
+        <v>2.61</v>
+      </c>
+      <c r="R96" s="3">
+        <v>6.22</v>
+      </c>
       <c r="S96" t="s">
         <v>134</v>
       </c>
@@ -5953,13 +6074,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>133</v>
       </c>
       <c r="B97">
         <v>3</v>
       </c>
+      <c r="Q97" s="3">
+        <v>6.32</v>
+      </c>
+      <c r="R97" s="3">
+        <v>10.36</v>
+      </c>
       <c r="S97" t="s">
         <v>134</v>
       </c>
@@ -5967,13 +6094,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>128</v>
       </c>
       <c r="B98">
         <v>4</v>
       </c>
+      <c r="Q98" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="R98" s="3">
+        <v>8.5</v>
+      </c>
       <c r="S98" t="s">
         <v>134</v>
       </c>
@@ -5981,13 +6114,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>129</v>
       </c>
       <c r="B99">
         <v>5</v>
       </c>
+      <c r="Q99" s="3">
+        <v>13.22</v>
+      </c>
+      <c r="R99" s="3">
+        <v>14.24</v>
+      </c>
       <c r="S99" t="s">
         <v>134</v>
       </c>
@@ -5995,13 +6134,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>131</v>
       </c>
       <c r="B100">
         <v>6</v>
       </c>
+      <c r="Q100" s="3">
+        <v>5.28</v>
+      </c>
+      <c r="R100" s="3">
+        <v>9.0299999999999994</v>
+      </c>
       <c r="S100" t="s">
         <v>134</v>
       </c>
@@ -6009,13 +6154,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>132</v>
       </c>
       <c r="B101">
         <v>7</v>
       </c>
+      <c r="Q101" s="3">
+        <v>19.690000000000001</v>
+      </c>
+      <c r="R101" s="3">
+        <v>18.899999999999999</v>
+      </c>
       <c r="S101" t="s">
         <v>134</v>
       </c>
@@ -6023,13 +6174,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>142</v>
       </c>
       <c r="B102">
         <v>175</v>
       </c>
+      <c r="Q102" s="3">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="R102" s="3">
+        <v>6.87</v>
+      </c>
       <c r="S102" t="s">
         <v>134</v>
       </c>
@@ -6037,13 +6194,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>143</v>
       </c>
       <c r="B103" t="s">
         <v>136</v>
       </c>
+      <c r="Q103" s="3">
+        <v>7.73</v>
+      </c>
+      <c r="R103" s="3">
+        <v>11.14</v>
+      </c>
       <c r="S103" t="s">
         <v>134</v>
       </c>
@@ -6051,13 +6214,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>144</v>
       </c>
       <c r="B104" t="s">
         <v>137</v>
       </c>
+      <c r="Q104" s="3">
+        <v>7.55</v>
+      </c>
+      <c r="R104" s="3">
+        <v>11.2</v>
+      </c>
       <c r="S104" t="s">
         <v>134</v>
       </c>
@@ -6065,13 +6234,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>145</v>
       </c>
       <c r="B105" t="s">
         <v>138</v>
       </c>
+      <c r="Q105" s="3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="R105" s="3">
+        <v>4.5599999999999996</v>
+      </c>
       <c r="S105" t="s">
         <v>134</v>
       </c>
@@ -6079,13 +6254,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>146</v>
       </c>
       <c r="B106" t="s">
         <v>139</v>
       </c>
+      <c r="Q106" s="3">
+        <v>7.89</v>
+      </c>
+      <c r="R106" s="3">
+        <v>10.64</v>
+      </c>
       <c r="S106" t="s">
         <v>134</v>
       </c>
@@ -6093,13 +6274,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>147</v>
       </c>
       <c r="B107" t="s">
         <v>140</v>
       </c>
+      <c r="Q107" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="R107" s="3">
+        <v>12.54</v>
+      </c>
       <c r="S107" t="s">
         <v>134</v>
       </c>
@@ -6107,13 +6294,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>164</v>
       </c>
       <c r="B108">
         <v>103</v>
       </c>
+      <c r="Q108" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="R108" s="3">
+        <v>9.17</v>
+      </c>
       <c r="S108" t="s">
         <v>175</v>
       </c>
@@ -6121,13 +6314,19 @@
         <v>116</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>165</v>
       </c>
       <c r="B109">
         <v>151</v>
       </c>
+      <c r="Q109" s="3">
+        <v>5.37</v>
+      </c>
+      <c r="R109" s="3">
+        <v>8.9499999999999993</v>
+      </c>
       <c r="S109" t="s">
         <v>175</v>
       </c>
@@ -6135,13 +6334,19 @@
         <v>116</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>166</v>
       </c>
       <c r="B110">
         <v>154</v>
       </c>
+      <c r="Q110" s="3">
+        <v>2.31</v>
+      </c>
+      <c r="R110" s="3">
+        <v>5.92</v>
+      </c>
       <c r="S110" t="s">
         <v>175</v>
       </c>
@@ -6149,13 +6354,19 @@
         <v>116</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>167</v>
       </c>
       <c r="B111">
         <v>164</v>
       </c>
+      <c r="Q111" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R111" s="3">
+        <v>8.5399999999999991</v>
+      </c>
       <c r="S111" t="s">
         <v>175</v>
       </c>
@@ -6163,13 +6374,19 @@
         <v>116</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>168</v>
       </c>
       <c r="B112">
         <v>165</v>
       </c>
+      <c r="Q112" s="3">
+        <v>4.45</v>
+      </c>
+      <c r="R112" s="3">
+        <v>9.49</v>
+      </c>
       <c r="S112" t="s">
         <v>175</v>
       </c>
@@ -6177,13 +6394,19 @@
         <v>116</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>169</v>
       </c>
       <c r="B113">
         <v>169</v>
       </c>
+      <c r="Q113" s="3">
+        <v>5.33</v>
+      </c>
+      <c r="R113" s="3">
+        <v>9.74</v>
+      </c>
       <c r="S113" t="s">
         <v>175</v>
       </c>
@@ -6191,13 +6414,19 @@
         <v>116</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>170</v>
       </c>
       <c r="B114">
         <v>180</v>
       </c>
+      <c r="Q114" s="3">
+        <v>4.18</v>
+      </c>
+      <c r="R114" s="3">
+        <v>8.48</v>
+      </c>
       <c r="S114" t="s">
         <v>175</v>
       </c>
@@ -6205,13 +6434,19 @@
         <v>116</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>171</v>
       </c>
       <c r="B115">
         <v>184</v>
       </c>
+      <c r="Q115" s="3">
+        <v>4.63</v>
+      </c>
+      <c r="R115" s="3">
+        <v>8.1999999999999993</v>
+      </c>
       <c r="S115" t="s">
         <v>175</v>
       </c>
@@ -6219,13 +6454,19 @@
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>172</v>
       </c>
       <c r="B116">
         <v>186</v>
       </c>
+      <c r="Q116" s="3">
+        <v>9.44</v>
+      </c>
+      <c r="R116" s="3">
+        <v>12.26</v>
+      </c>
       <c r="S116" t="s">
         <v>175</v>
       </c>
@@ -6233,13 +6474,19 @@
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>173</v>
       </c>
       <c r="B117">
         <v>190</v>
       </c>
+      <c r="Q117" s="3">
+        <v>5.95</v>
+      </c>
+      <c r="R117" s="3">
+        <v>9.8800000000000008</v>
+      </c>
       <c r="S117" t="s">
         <v>175</v>
       </c>
@@ -6247,12 +6494,18 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>174</v>
       </c>
       <c r="B118">
         <v>200</v>
+      </c>
+      <c r="Q118" s="3">
+        <v>7.66</v>
+      </c>
+      <c r="R118" s="3">
+        <v>11.42</v>
       </c>
       <c r="S118" t="s">
         <v>175</v>

--- a/data/dataset.xlsx
+++ b/data/dataset.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\falcu\Documents\GitHub\Glycymeris-Perforations\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD64D97E-0A00-4D5A-88DA-040702B9D41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18D50A5-9546-4F16-933B-9998207ACD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="-90" windowWidth="19380" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45972" yWindow="-108" windowWidth="13176" windowHeight="22656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shared file for corrections Fla" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Shared file for corrections Fla'!$A$1:$V$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Shared file for corrections Fla'!$A$1:$V$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,532 +68,532 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="176">
   <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>Excavation</t>
+  </si>
+  <si>
+    <t>Quadrat</t>
+  </si>
+  <si>
+    <t>hight in mm</t>
+  </si>
+  <si>
+    <t>lenght in mm</t>
+  </si>
+  <si>
+    <t>width in mm</t>
+  </si>
+  <si>
+    <t>weight in g</t>
+  </si>
+  <si>
+    <t>Lenght perforation (N)</t>
+  </si>
+  <si>
+    <t>Width perforation (E)</t>
+  </si>
+  <si>
+    <t>Lenght perforation (S)</t>
+  </si>
+  <si>
+    <t>Width perforation (W)</t>
+  </si>
+  <si>
+    <t>Petersfels</t>
+  </si>
+  <si>
+    <t>Albrecht</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Peters</t>
+  </si>
+  <si>
+    <t>irregular</t>
+  </si>
+  <si>
+    <t>sub oval</t>
+  </si>
+  <si>
+    <t>Abr</t>
+  </si>
+  <si>
+    <t>round</t>
+  </si>
+  <si>
+    <t>oval</t>
+  </si>
+  <si>
+    <t>Abr + Drill</t>
+  </si>
+  <si>
+    <t>Abr + Drill + Reg</t>
+  </si>
+  <si>
+    <t>sub elliptical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abr + Drill </t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Perforation shape</t>
+  </si>
+  <si>
+    <t>38.1</t>
+  </si>
+  <si>
+    <t>Max length</t>
+  </si>
+  <si>
+    <t>Max width</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>ARCH_13</t>
+  </si>
+  <si>
+    <t>ARCH_17</t>
+  </si>
+  <si>
+    <t>ARCH_25</t>
+  </si>
+  <si>
+    <t>ARCH_40</t>
+  </si>
+  <si>
+    <t>ARCH_44</t>
+  </si>
+  <si>
+    <t>ARCH_45</t>
+  </si>
+  <si>
+    <t>ARCH_46</t>
+  </si>
+  <si>
+    <t>ARCH_48</t>
+  </si>
+  <si>
+    <t>ARCH_49</t>
+  </si>
+  <si>
+    <t>ARCH_50</t>
+  </si>
+  <si>
+    <t>ARCH_51</t>
+  </si>
+  <si>
+    <t>ARCH_52</t>
+  </si>
+  <si>
+    <t>ARCH_53</t>
+  </si>
+  <si>
+    <t>ARCH_54</t>
+  </si>
+  <si>
+    <t>ARCH_58</t>
+  </si>
+  <si>
+    <t>ARCH_62</t>
+  </si>
+  <si>
+    <t>ARCH_65</t>
+  </si>
+  <si>
+    <t>ARCH_66</t>
+  </si>
+  <si>
+    <t>ARCH_67</t>
+  </si>
+  <si>
+    <t>ARCH_68</t>
+  </si>
+  <si>
+    <t>ARCH_69</t>
+  </si>
+  <si>
+    <t>ARCH_70</t>
+  </si>
+  <si>
+    <t>ARCH_71</t>
+  </si>
+  <si>
+    <t>ARCH_73</t>
+  </si>
+  <si>
+    <t>ARCH_75</t>
+  </si>
+  <si>
+    <t>ARCH_77</t>
+  </si>
+  <si>
+    <t>ARCH_79</t>
+  </si>
+  <si>
+    <t>ARCH_81</t>
+  </si>
+  <si>
+    <t>ARCH_83</t>
+  </si>
+  <si>
+    <t>ARCH_86</t>
+  </si>
+  <si>
+    <t>ARCH_87</t>
+  </si>
+  <si>
+    <t>ARCH_88</t>
+  </si>
+  <si>
+    <t>ARCH_89</t>
+  </si>
+  <si>
+    <t>ARCH_93</t>
+  </si>
+  <si>
+    <t>ARCH_94</t>
+  </si>
+  <si>
+    <t>ARCH_95</t>
+  </si>
+  <si>
+    <t>ARCH_96</t>
+  </si>
+  <si>
+    <t>ARCH_97</t>
+  </si>
+  <si>
+    <t>ARCH_98</t>
+  </si>
+  <si>
+    <t>ARCH_101</t>
+  </si>
+  <si>
+    <t>ARCH_102</t>
+  </si>
+  <si>
+    <t>ARCH_103</t>
+  </si>
+  <si>
+    <t>ARCH_104</t>
+  </si>
+  <si>
+    <t>ARCH_107</t>
+  </si>
+  <si>
+    <t>ARCH_108</t>
+  </si>
+  <si>
+    <t>ARCH_113</t>
+  </si>
+  <si>
+    <t>EXP_72</t>
+  </si>
+  <si>
+    <t>EXP_78</t>
+  </si>
+  <si>
+    <t>EXP_86</t>
+  </si>
+  <si>
+    <t>EXP_90</t>
+  </si>
+  <si>
+    <t>EXP_95</t>
+  </si>
+  <si>
+    <t>EXP_97</t>
+  </si>
+  <si>
+    <t>EXP_104</t>
+  </si>
+  <si>
+    <t>EXP_125</t>
+  </si>
+  <si>
+    <t>EXP_128</t>
+  </si>
+  <si>
+    <t>EXP_135</t>
+  </si>
+  <si>
+    <t>EXP_136</t>
+  </si>
+  <si>
+    <t>EXP_137</t>
+  </si>
+  <si>
+    <t>EXP_141</t>
+  </si>
+  <si>
+    <t>EXP_145</t>
+  </si>
+  <si>
+    <t>EXP_146</t>
+  </si>
+  <si>
+    <t>EXP_147</t>
+  </si>
+  <si>
+    <t>EXP_148</t>
+  </si>
+  <si>
+    <t>EXP_150</t>
+  </si>
+  <si>
+    <t>EXP_156</t>
+  </si>
+  <si>
+    <t>EXP_157</t>
+  </si>
+  <si>
+    <t>EXP_158</t>
+  </si>
+  <si>
+    <t>EXP_163</t>
+  </si>
+  <si>
+    <t>EXP_166</t>
+  </si>
+  <si>
+    <t>EXP_167</t>
+  </si>
+  <si>
+    <t>EXP_170</t>
+  </si>
+  <si>
+    <t>EXP_194</t>
+  </si>
+  <si>
+    <t>EXP_195</t>
+  </si>
+  <si>
+    <t>EXP_198</t>
+  </si>
+  <si>
+    <t>EXP_201</t>
+  </si>
+  <si>
+    <t>ID_old</t>
+  </si>
+  <si>
+    <t>Perforation</t>
+  </si>
+  <si>
+    <t>Abrasion</t>
+  </si>
+  <si>
+    <t>Abrasion+Drill</t>
+  </si>
+  <si>
+    <t>NAT_11</t>
+  </si>
+  <si>
+    <t>NAT_16</t>
+  </si>
+  <si>
+    <t>NAT_48</t>
+  </si>
+  <si>
+    <t>NAT_69</t>
+  </si>
+  <si>
+    <t>NAT_76</t>
+  </si>
+  <si>
+    <t>NAT_80</t>
+  </si>
+  <si>
+    <t>NAT_91</t>
+  </si>
+  <si>
+    <t>NAT_92</t>
+  </si>
+  <si>
+    <t>NAT_109</t>
+  </si>
+  <si>
+    <t>NAT_112</t>
+  </si>
+  <si>
+    <t>NAT_4</t>
+  </si>
+  <si>
+    <t>NAT_5</t>
+  </si>
+  <si>
+    <t>NAT_2</t>
+  </si>
+  <si>
+    <t>NAT_6</t>
+  </si>
+  <si>
+    <t>NAT_7</t>
+  </si>
+  <si>
+    <t>NAT_3</t>
+  </si>
+  <si>
+    <t>Natural</t>
+  </si>
+  <si>
+    <t>9R</t>
+  </si>
+  <si>
+    <t>10R</t>
+  </si>
+  <si>
+    <t>11R</t>
+  </si>
+  <si>
+    <t>12R</t>
+  </si>
+  <si>
+    <t>13R</t>
+  </si>
+  <si>
+    <t>14R</t>
+  </si>
+  <si>
+    <t>NAT_9R</t>
+  </si>
+  <si>
+    <t>NAT_175</t>
+  </si>
+  <si>
+    <t>NAT_10R</t>
+  </si>
+  <si>
+    <t>NAT_11R</t>
+  </si>
+  <si>
+    <t>NAT_12R</t>
+  </si>
+  <si>
+    <t>NAT_13R</t>
+  </si>
+  <si>
+    <t>NAT_14R</t>
+  </si>
+  <si>
+    <t>8R</t>
+  </si>
+  <si>
+    <t>1R</t>
+  </si>
+  <si>
+    <t>4R</t>
+  </si>
+  <si>
+    <t>5R</t>
+  </si>
+  <si>
+    <t>2R</t>
+  </si>
+  <si>
+    <t>6R</t>
+  </si>
+  <si>
+    <t>7R</t>
+  </si>
+  <si>
+    <t>3R</t>
+  </si>
+  <si>
+    <t>NAT_8R</t>
+  </si>
+  <si>
+    <t>NAT_1R</t>
+  </si>
+  <si>
+    <t>NAT_4R</t>
+  </si>
+  <si>
+    <t>NAT_5R</t>
+  </si>
+  <si>
+    <t>NAT_2R</t>
+  </si>
+  <si>
+    <t>NAT_6R</t>
+  </si>
+  <si>
+    <t>NAT_7R</t>
+  </si>
+  <si>
+    <t>NAT_3R</t>
+  </si>
+  <si>
+    <t>EXP_103</t>
+  </si>
+  <si>
+    <t>EXP_151</t>
+  </si>
+  <si>
+    <t>EXP_154</t>
+  </si>
+  <si>
+    <t>EXP_164</t>
+  </si>
+  <si>
+    <t>EXP_165</t>
+  </si>
+  <si>
+    <t>EXP_169</t>
+  </si>
+  <si>
+    <t>EXP_180</t>
+  </si>
+  <si>
+    <t>EXP_184</t>
+  </si>
+  <si>
+    <t>EXP_186</t>
+  </si>
+  <si>
+    <t>EXP_190</t>
+  </si>
+  <si>
+    <t>EXP_200</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Archaeological</t>
+  </si>
+  <si>
+    <t>Rim.length</t>
+  </si>
+  <si>
+    <t>Area.perforation</t>
+  </si>
+  <si>
+    <t>Circumference.perforation</t>
+  </si>
+  <si>
+    <t>Perforation.type</t>
+  </si>
+  <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>site</t>
-  </si>
-  <si>
-    <t>Excavation</t>
-  </si>
-  <si>
-    <t>Quadrat</t>
-  </si>
-  <si>
-    <t>hight in mm</t>
-  </si>
-  <si>
-    <t>lenght in mm</t>
-  </si>
-  <si>
-    <t>width in mm</t>
-  </si>
-  <si>
-    <t>weight in g</t>
-  </si>
-  <si>
-    <t>Lenght perforation (N)</t>
-  </si>
-  <si>
-    <t>Width perforation (E)</t>
-  </si>
-  <si>
-    <t>Lenght perforation (S)</t>
-  </si>
-  <si>
-    <t>Width perforation (W)</t>
-  </si>
-  <si>
-    <t>Rim lenght</t>
-  </si>
-  <si>
-    <t>Area perforation m2</t>
-  </si>
-  <si>
-    <t>Circumference perf.</t>
-  </si>
-  <si>
-    <t>Petersfels</t>
-  </si>
-  <si>
-    <t>Albrecht</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>Peters</t>
-  </si>
-  <si>
-    <t>irregular</t>
-  </si>
-  <si>
-    <t>sub oval</t>
-  </si>
-  <si>
-    <t>Abr</t>
-  </si>
-  <si>
-    <t>round</t>
-  </si>
-  <si>
-    <t>oval</t>
-  </si>
-  <si>
-    <t>Abr + Drill</t>
-  </si>
-  <si>
-    <t>Abr + Drill + Reg</t>
-  </si>
-  <si>
-    <t>sub elliptical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abr + Drill </t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Archeological</t>
-  </si>
-  <si>
-    <t>Perforation type</t>
-  </si>
-  <si>
-    <t>Perforation shape</t>
-  </si>
-  <si>
-    <t>38.1</t>
-  </si>
-  <si>
-    <t>Max length</t>
-  </si>
-  <si>
-    <t>Max width</t>
-  </si>
-  <si>
-    <t>2.01</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>ARCH_13</t>
-  </si>
-  <si>
-    <t>ARCH_17</t>
-  </si>
-  <si>
-    <t>ARCH_25</t>
-  </si>
-  <si>
-    <t>ARCH_40</t>
-  </si>
-  <si>
-    <t>ARCH_44</t>
-  </si>
-  <si>
-    <t>ARCH_45</t>
-  </si>
-  <si>
-    <t>ARCH_46</t>
-  </si>
-  <si>
-    <t>ARCH_48</t>
-  </si>
-  <si>
-    <t>ARCH_49</t>
-  </si>
-  <si>
-    <t>ARCH_50</t>
-  </si>
-  <si>
-    <t>ARCH_51</t>
-  </si>
-  <si>
-    <t>ARCH_52</t>
-  </si>
-  <si>
-    <t>ARCH_53</t>
-  </si>
-  <si>
-    <t>ARCH_54</t>
-  </si>
-  <si>
-    <t>ARCH_58</t>
-  </si>
-  <si>
-    <t>ARCH_62</t>
-  </si>
-  <si>
-    <t>ARCH_65</t>
-  </si>
-  <si>
-    <t>ARCH_66</t>
-  </si>
-  <si>
-    <t>ARCH_67</t>
-  </si>
-  <si>
-    <t>ARCH_68</t>
-  </si>
-  <si>
-    <t>ARCH_69</t>
-  </si>
-  <si>
-    <t>ARCH_70</t>
-  </si>
-  <si>
-    <t>ARCH_71</t>
-  </si>
-  <si>
-    <t>ARCH_73</t>
-  </si>
-  <si>
-    <t>ARCH_75</t>
-  </si>
-  <si>
-    <t>ARCH_77</t>
-  </si>
-  <si>
-    <t>ARCH_79</t>
-  </si>
-  <si>
-    <t>ARCH_81</t>
-  </si>
-  <si>
-    <t>ARCH_83</t>
-  </si>
-  <si>
-    <t>ARCH_86</t>
-  </si>
-  <si>
-    <t>ARCH_87</t>
-  </si>
-  <si>
-    <t>ARCH_88</t>
-  </si>
-  <si>
-    <t>ARCH_89</t>
-  </si>
-  <si>
-    <t>ARCH_93</t>
-  </si>
-  <si>
-    <t>ARCH_94</t>
-  </si>
-  <si>
-    <t>ARCH_95</t>
-  </si>
-  <si>
-    <t>ARCH_96</t>
-  </si>
-  <si>
-    <t>ARCH_97</t>
-  </si>
-  <si>
-    <t>ARCH_98</t>
-  </si>
-  <si>
-    <t>ARCH_101</t>
-  </si>
-  <si>
-    <t>ARCH_102</t>
-  </si>
-  <si>
-    <t>ARCH_103</t>
-  </si>
-  <si>
-    <t>ARCH_104</t>
-  </si>
-  <si>
-    <t>ARCH_107</t>
-  </si>
-  <si>
-    <t>ARCH_108</t>
-  </si>
-  <si>
-    <t>ARCH_113</t>
-  </si>
-  <si>
-    <t>EXP_72</t>
-  </si>
-  <si>
-    <t>EXP_78</t>
-  </si>
-  <si>
-    <t>EXP_86</t>
-  </si>
-  <si>
-    <t>EXP_90</t>
-  </si>
-  <si>
-    <t>EXP_95</t>
-  </si>
-  <si>
-    <t>EXP_97</t>
-  </si>
-  <si>
-    <t>EXP_104</t>
-  </si>
-  <si>
-    <t>EXP_125</t>
-  </si>
-  <si>
-    <t>EXP_128</t>
-  </si>
-  <si>
-    <t>EXP_135</t>
-  </si>
-  <si>
-    <t>EXP_136</t>
-  </si>
-  <si>
-    <t>EXP_137</t>
-  </si>
-  <si>
-    <t>EXP_141</t>
-  </si>
-  <si>
-    <t>EXP_145</t>
-  </si>
-  <si>
-    <t>EXP_146</t>
-  </si>
-  <si>
-    <t>EXP_147</t>
-  </si>
-  <si>
-    <t>EXP_148</t>
-  </si>
-  <si>
-    <t>EXP_150</t>
-  </si>
-  <si>
-    <t>EXP_156</t>
-  </si>
-  <si>
-    <t>EXP_157</t>
-  </si>
-  <si>
-    <t>EXP_158</t>
-  </si>
-  <si>
-    <t>EXP_163</t>
-  </si>
-  <si>
-    <t>EXP_166</t>
-  </si>
-  <si>
-    <t>EXP_167</t>
-  </si>
-  <si>
-    <t>EXP_170</t>
-  </si>
-  <si>
-    <t>EXP_194</t>
-  </si>
-  <si>
-    <t>EXP_195</t>
-  </si>
-  <si>
-    <t>EXP_198</t>
-  </si>
-  <si>
-    <t>EXP_201</t>
-  </si>
-  <si>
-    <t>ID_old</t>
-  </si>
-  <si>
-    <t>Perforation</t>
-  </si>
-  <si>
-    <t>Abrasion</t>
-  </si>
-  <si>
-    <t>Abrasion+Drill</t>
-  </si>
-  <si>
-    <t>NAT_11</t>
-  </si>
-  <si>
-    <t>NAT_16</t>
-  </si>
-  <si>
-    <t>NAT_48</t>
-  </si>
-  <si>
-    <t>NAT_69</t>
-  </si>
-  <si>
-    <t>NAT_76</t>
-  </si>
-  <si>
-    <t>NAT_80</t>
-  </si>
-  <si>
-    <t>NAT_91</t>
-  </si>
-  <si>
-    <t>NAT_92</t>
-  </si>
-  <si>
-    <t>NAT_109</t>
-  </si>
-  <si>
-    <t>NAT_112</t>
-  </si>
-  <si>
-    <t>NAT_4</t>
-  </si>
-  <si>
-    <t>NAT_5</t>
-  </si>
-  <si>
-    <t>NAT_2</t>
-  </si>
-  <si>
-    <t>NAT_6</t>
-  </si>
-  <si>
-    <t>NAT_7</t>
-  </si>
-  <si>
-    <t>NAT_3</t>
-  </si>
-  <si>
-    <t>Natural</t>
-  </si>
-  <si>
-    <t>9R</t>
-  </si>
-  <si>
-    <t>10R</t>
-  </si>
-  <si>
-    <t>11R</t>
-  </si>
-  <si>
-    <t>12R</t>
-  </si>
-  <si>
-    <t>13R</t>
-  </si>
-  <si>
-    <t>14R</t>
-  </si>
-  <si>
-    <t>NAT_9R</t>
-  </si>
-  <si>
-    <t>NAT_175</t>
-  </si>
-  <si>
-    <t>NAT_10R</t>
-  </si>
-  <si>
-    <t>NAT_11R</t>
-  </si>
-  <si>
-    <t>NAT_12R</t>
-  </si>
-  <si>
-    <t>NAT_13R</t>
-  </si>
-  <si>
-    <t>NAT_14R</t>
-  </si>
-  <si>
-    <t>8R</t>
-  </si>
-  <si>
-    <t>1R</t>
-  </si>
-  <si>
-    <t>4R</t>
-  </si>
-  <si>
-    <t>5R</t>
-  </si>
-  <si>
-    <t>2R</t>
-  </si>
-  <si>
-    <t>6R</t>
-  </si>
-  <si>
-    <t>7R</t>
-  </si>
-  <si>
-    <t>3R</t>
-  </si>
-  <si>
-    <t>NAT_8R</t>
-  </si>
-  <si>
-    <t>NAT_1R</t>
-  </si>
-  <si>
-    <t>NAT_4R</t>
-  </si>
-  <si>
-    <t>NAT_5R</t>
-  </si>
-  <si>
-    <t>NAT_2R</t>
-  </si>
-  <si>
-    <t>NAT_6R</t>
-  </si>
-  <si>
-    <t>NAT_7R</t>
-  </si>
-  <si>
-    <t>NAT_3R</t>
-  </si>
-  <si>
-    <t>EXP_103</t>
-  </si>
-  <si>
-    <t>EXP_151</t>
-  </si>
-  <si>
-    <t>EXP_154</t>
-  </si>
-  <si>
-    <t>EXP_164</t>
-  </si>
-  <si>
-    <t>EXP_165</t>
-  </si>
-  <si>
-    <t>EXP_169</t>
-  </si>
-  <si>
-    <t>EXP_180</t>
-  </si>
-  <si>
-    <t>EXP_184</t>
-  </si>
-  <si>
-    <t>EXP_186</t>
-  </si>
-  <si>
-    <t>EXP_190</t>
-  </si>
-  <si>
-    <t>EXP_200</t>
-  </si>
-  <si>
-    <t>Experimental</t>
   </si>
 </sst>
 </file>
@@ -1000,109 +1000,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9378DE56-4AC5-415E-848F-E2ACB5B89CDD}">
   <dimension ref="A1:V118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R118" sqref="R118"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="22.33203125" customWidth="1"/>
-    <col min="12" max="12" width="27.6640625" style="12" customWidth="1"/>
+    <col min="6" max="7" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.53515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="22.3046875" customWidth="1"/>
+    <col min="12" max="12" width="27.69140625" style="12" customWidth="1"/>
     <col min="13" max="13" width="23" customWidth="1"/>
-    <col min="14" max="14" width="20.109375" style="12" customWidth="1"/>
+    <col min="14" max="14" width="20.07421875" style="12" customWidth="1"/>
     <col min="15" max="15" width="21" customWidth="1"/>
-    <col min="16" max="16" width="40.6640625" style="12" customWidth="1"/>
-    <col min="17" max="18" width="40.6640625" customWidth="1"/>
-    <col min="19" max="19" width="36.6640625" customWidth="1"/>
-    <col min="20" max="21" width="21.6640625" customWidth="1"/>
+    <col min="16" max="16" width="40.69140625" style="12" customWidth="1"/>
+    <col min="17" max="18" width="40.69140625" customWidth="1"/>
+    <col min="19" max="19" width="36.69140625" customWidth="1"/>
+    <col min="20" max="21" width="21.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="P1" s="8" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>39</v>
       </c>
       <c r="B2" s="2">
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F2" s="4">
         <v>17.129999160000001</v>
@@ -1144,30 +1144,30 @@
         <v>6.39</v>
       </c>
       <c r="S2" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T2" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2">
         <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4">
         <v>12.260000229999999</v>
@@ -1209,30 +1209,30 @@
         <v>9.02</v>
       </c>
       <c r="S3" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T3" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2">
         <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F4" s="4">
         <v>17.530000690000001</v>
@@ -1274,27 +1274,27 @@
         <v>11.79</v>
       </c>
       <c r="S4" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T4" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2">
         <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="4">
@@ -1337,27 +1337,27 @@
         <v>7.82</v>
       </c>
       <c r="S5" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T5" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2">
         <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="4">
@@ -1400,27 +1400,27 @@
         <v>5.9</v>
       </c>
       <c r="S6" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T6" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2">
         <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="4">
@@ -1463,27 +1463,27 @@
         <v>10.64</v>
       </c>
       <c r="S7" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T7" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2">
         <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="4">
@@ -1526,27 +1526,27 @@
         <v>7.77</v>
       </c>
       <c r="S8" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T8" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2">
         <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="4">
@@ -1589,27 +1589,27 @@
         <v>9.19</v>
       </c>
       <c r="S9" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T9" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2">
         <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="4">
@@ -1652,27 +1652,27 @@
         <v>8.51</v>
       </c>
       <c r="S10" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T10" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2">
         <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="4">
@@ -1715,27 +1715,27 @@
         <v>8.06</v>
       </c>
       <c r="S11" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T11" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2">
         <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="4">
@@ -1778,27 +1778,27 @@
         <v>9.2799999999999994</v>
       </c>
       <c r="S12" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T12" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2">
         <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="4">
@@ -1841,27 +1841,27 @@
         <v>6.82</v>
       </c>
       <c r="S13" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T13" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2">
         <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="4">
@@ -1904,27 +1904,27 @@
         <v>8.3800000000000008</v>
       </c>
       <c r="S14" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T14" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2">
         <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="4">
@@ -1940,7 +1940,7 @@
         <v>1.2000000479999999</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K15" s="4">
         <v>3</v>
@@ -1967,27 +1967,27 @@
         <v>8.18</v>
       </c>
       <c r="S15" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T15" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2">
         <v>58</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="4">
@@ -2030,27 +2030,27 @@
         <v>5.48</v>
       </c>
       <c r="S16" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T16" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2">
         <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="4">
@@ -2093,27 +2093,27 @@
         <v>9.5</v>
       </c>
       <c r="S17" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T17" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B18" s="2">
         <v>65</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="4">
@@ -2156,27 +2156,27 @@
         <v>8.4499999999999993</v>
       </c>
       <c r="S18" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T18" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B19" s="2">
         <v>66</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="4">
@@ -2219,27 +2219,27 @@
         <v>6.43</v>
       </c>
       <c r="S19" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T19" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B20" s="2">
         <v>67</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="4">
@@ -2282,27 +2282,27 @@
         <v>10.33</v>
       </c>
       <c r="S20" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T20" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B21" s="2">
         <v>68</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="4">
@@ -2345,27 +2345,27 @@
         <v>8.26</v>
       </c>
       <c r="S21" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T21" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2">
         <v>69</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="4">
@@ -2408,27 +2408,27 @@
         <v>7.96</v>
       </c>
       <c r="S22" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T22" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2">
         <v>70</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="4">
@@ -2471,27 +2471,27 @@
         <v>8.24</v>
       </c>
       <c r="S23" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T23" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B24" s="2">
         <v>71</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="4">
@@ -2534,27 +2534,27 @@
         <v>9.5399999999999991</v>
       </c>
       <c r="S24" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T24" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B25" s="2">
         <v>73</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="4">
@@ -2597,27 +2597,27 @@
         <v>6.48</v>
       </c>
       <c r="S25" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T25" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B26" s="2">
         <v>75</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="4">
@@ -2660,27 +2660,27 @@
         <v>10.58</v>
       </c>
       <c r="S26" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T26" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B27" s="2">
         <v>77</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="4">
@@ -2723,27 +2723,27 @@
         <v>7.45</v>
       </c>
       <c r="S27" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T27" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B28" s="2">
         <v>79</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="4">
@@ -2786,27 +2786,27 @@
         <v>9.58</v>
       </c>
       <c r="S28" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T28" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B29" s="2">
         <v>81</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="4">
@@ -2849,27 +2849,27 @@
         <v>6.25</v>
       </c>
       <c r="S29" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T29" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B30" s="2">
         <v>83</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="4">
@@ -2912,27 +2912,27 @@
         <v>7.41</v>
       </c>
       <c r="S30" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T30" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B31" s="2">
         <v>86</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="4">
@@ -2975,27 +2975,27 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="S31" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T31" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B32" s="2">
         <v>87</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="4">
@@ -3038,27 +3038,27 @@
         <v>12.18</v>
       </c>
       <c r="S32" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T32" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B33" s="2">
         <v>88</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="4">
@@ -3101,27 +3101,27 @@
         <v>6.77</v>
       </c>
       <c r="S33" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T33" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B34" s="2">
         <v>89</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="4">
@@ -3164,27 +3164,27 @@
         <v>7.57</v>
       </c>
       <c r="S34" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T34" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B35" s="2">
         <v>93</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="4">
@@ -3227,27 +3227,27 @@
         <v>8.27</v>
       </c>
       <c r="S35" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T35" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B36" s="2">
         <v>94</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="4">
@@ -3290,27 +3290,27 @@
         <v>8.61</v>
       </c>
       <c r="S36" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T36" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B37" s="2">
         <v>95</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="4">
@@ -3353,27 +3353,27 @@
         <v>7.49</v>
       </c>
       <c r="S37" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T37" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B38" s="2">
         <v>96</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="4">
@@ -3416,27 +3416,27 @@
         <v>9.02</v>
       </c>
       <c r="S38" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T38" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2">
         <v>97</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="4">
@@ -3479,27 +3479,27 @@
         <v>10.46</v>
       </c>
       <c r="S39" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T39" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B40" s="2">
         <v>98</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="4">
@@ -3542,27 +3542,27 @@
         <v>6.27</v>
       </c>
       <c r="S40" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T40" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B41" s="2">
         <v>101</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="4">
@@ -3605,27 +3605,27 @@
         <v>6.28</v>
       </c>
       <c r="S41" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T41" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B42" s="2">
         <v>102</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="4">
@@ -3668,27 +3668,27 @@
         <v>8.8699999999999992</v>
       </c>
       <c r="S42" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T42" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2">
         <v>103</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="4">
@@ -3731,27 +3731,27 @@
         <v>11.15</v>
       </c>
       <c r="S43" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T43" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B44" s="2">
         <v>104</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="4">
@@ -3794,27 +3794,27 @@
         <v>13.58</v>
       </c>
       <c r="S44" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T44" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U44" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B45" s="2">
         <v>107</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="4">
@@ -3857,27 +3857,27 @@
         <v>5.07</v>
       </c>
       <c r="S45" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T45" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B46" s="2">
         <v>108</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="4">
@@ -3920,27 +3920,27 @@
         <v>5.31</v>
       </c>
       <c r="S46" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T46" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B47" s="2">
         <v>113</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="4">
@@ -3983,18 +3983,18 @@
         <v>8.84</v>
       </c>
       <c r="S47" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="T47" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="U47" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B48" s="3">
         <v>72</v>
@@ -4038,21 +4038,21 @@
         <v>13.97</v>
       </c>
       <c r="S48" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B49" s="3">
         <v>78</v>
@@ -4096,21 +4096,21 @@
         <v>9.14</v>
       </c>
       <c r="S49" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B50" s="3">
         <v>86</v>
@@ -4145,7 +4145,7 @@
         <v>1.81</v>
       </c>
       <c r="P50" s="11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q50" s="3">
         <v>5.38</v>
@@ -4154,21 +4154,21 @@
         <v>10.45</v>
       </c>
       <c r="S50" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B51" s="3">
         <v>90</v>
@@ -4212,21 +4212,21 @@
         <v>10.93</v>
       </c>
       <c r="S51" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B52" s="3">
         <v>95</v>
@@ -4270,21 +4270,21 @@
         <v>6.84</v>
       </c>
       <c r="S52" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B53" s="3">
         <v>97</v>
@@ -4328,21 +4328,21 @@
         <v>8.09</v>
       </c>
       <c r="S53" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B54" s="3">
         <v>104</v>
@@ -4386,21 +4386,21 @@
         <v>8.58</v>
       </c>
       <c r="S54" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="T54" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U54" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B55" s="3">
         <v>125</v>
@@ -4444,21 +4444,21 @@
         <v>6.72</v>
       </c>
       <c r="S55" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="T55" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B56" s="3">
         <v>128</v>
@@ -4502,21 +4502,21 @@
         <v>4.54</v>
       </c>
       <c r="S56" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="U56" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B57" s="3">
         <v>135</v>
@@ -4560,21 +4560,21 @@
         <v>6.51</v>
       </c>
       <c r="S57" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="T57" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U57" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B58" s="3">
         <v>136</v>
@@ -4618,21 +4618,21 @@
         <v>4.29</v>
       </c>
       <c r="S58" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="U58" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B59" s="3">
         <v>137</v>
@@ -4676,21 +4676,21 @@
         <v>6.9</v>
       </c>
       <c r="S59" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U59" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="V59" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B60" s="3">
         <v>141</v>
@@ -4734,21 +4734,21 @@
         <v>6.01</v>
       </c>
       <c r="S60" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="U60" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="V60" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B61" s="3">
         <v>145</v>
@@ -4792,21 +4792,21 @@
         <v>7.55</v>
       </c>
       <c r="S61" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="T61" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U61" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B62" s="3">
         <v>146</v>
@@ -4850,21 +4850,21 @@
         <v>12.74</v>
       </c>
       <c r="S62" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="T62" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U62" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B63" s="3">
         <v>147</v>
@@ -4908,21 +4908,21 @@
         <v>6.91</v>
       </c>
       <c r="S63" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="T63" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U63" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="V63" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B64" s="3">
         <v>148</v>
@@ -4966,21 +4966,21 @@
         <v>4.2300000000000004</v>
       </c>
       <c r="S64" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="T64" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U64" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="V64" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B65" s="3">
         <v>150</v>
@@ -5024,21 +5024,21 @@
         <v>6.04</v>
       </c>
       <c r="S65" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="T65" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U65" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="V65" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B66" s="3">
         <v>156</v>
@@ -5082,21 +5082,21 @@
         <v>6.17</v>
       </c>
       <c r="S66" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="T66" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="U66" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="V66" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B67" s="3">
         <v>157</v>
@@ -5140,21 +5140,21 @@
         <v>6.22</v>
       </c>
       <c r="S67" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="T67" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U67" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="V67" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B68" s="3">
         <v>158</v>
@@ -5198,21 +5198,21 @@
         <v>6.54</v>
       </c>
       <c r="S68" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="T68" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U68" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="V68" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B69" s="3">
         <v>163</v>
@@ -5256,21 +5256,21 @@
         <v>9.4499999999999993</v>
       </c>
       <c r="S69" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="T69" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U69" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="V69" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B70" s="3">
         <v>166</v>
@@ -5314,21 +5314,21 @@
         <v>12.85</v>
       </c>
       <c r="S70" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="T70" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="U70" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="V70" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B71" s="3">
         <v>167</v>
@@ -5372,21 +5372,21 @@
         <v>10.76</v>
       </c>
       <c r="S71" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="T71" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U71" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="V71" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B72" s="3">
         <v>170</v>
@@ -5397,7 +5397,7 @@
         <v>38.200000000000003</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H72" s="3">
         <v>7.7</v>
@@ -5430,21 +5430,21 @@
         <v>12.58</v>
       </c>
       <c r="S72" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="T72" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U72" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="V72" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B73" s="3">
         <v>194</v>
@@ -5488,21 +5488,21 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="S73" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="T73" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U73" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="V73" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B74" s="3">
         <v>195</v>
@@ -5546,21 +5546,21 @@
         <v>7.25</v>
       </c>
       <c r="S74" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="T74" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U74" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="V74" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B75" s="3">
         <v>198</v>
@@ -5604,21 +5604,21 @@
         <v>10.199999999999999</v>
       </c>
       <c r="S75" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="T75" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U75" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="V75" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B76" s="3">
         <v>201</v>
@@ -5662,21 +5662,21 @@
         <v>10.33</v>
       </c>
       <c r="S76" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="T76" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="U76" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="V76" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B77">
         <v>11</v>
@@ -5688,15 +5688,15 @@
         <v>2.85</v>
       </c>
       <c r="S77" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U77" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B78">
         <v>16</v>
@@ -5708,15 +5708,15 @@
         <v>11.57</v>
       </c>
       <c r="S78" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U78" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B79">
         <v>48</v>
@@ -5728,15 +5728,15 @@
         <v>5.92</v>
       </c>
       <c r="S79" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U79" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B80">
         <v>69</v>
@@ -5748,15 +5748,15 @@
         <v>9.6199999999999992</v>
       </c>
       <c r="S80" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U80" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B81">
         <v>76</v>
@@ -5768,15 +5768,15 @@
         <v>4.96</v>
       </c>
       <c r="S81" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U81" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B82">
         <v>80</v>
@@ -5788,15 +5788,15 @@
         <v>12.51</v>
       </c>
       <c r="S82" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U82" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B83">
         <v>91</v>
@@ -5808,15 +5808,15 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="S83" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U83" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B84">
         <v>92</v>
@@ -5828,15 +5828,15 @@
         <v>11.21</v>
       </c>
       <c r="S84" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U84" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B85">
         <v>109</v>
@@ -5848,15 +5848,15 @@
         <v>4.5</v>
       </c>
       <c r="S85" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U85" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B86">
         <v>112</v>
@@ -5868,18 +5868,18 @@
         <v>2.06</v>
       </c>
       <c r="S86" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U86" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B87" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="Q87" s="3">
         <v>45.51</v>
@@ -5888,18 +5888,18 @@
         <v>27.08</v>
       </c>
       <c r="S87" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U87" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B88" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="Q88" s="3">
         <v>2.63</v>
@@ -5908,18 +5908,18 @@
         <v>7.36</v>
       </c>
       <c r="S88" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U88" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B89" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q89" s="3">
         <v>8.89</v>
@@ -5928,18 +5928,18 @@
         <v>12.48</v>
       </c>
       <c r="S89" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U89" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B90" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="Q90" s="3">
         <v>1.94</v>
@@ -5948,18 +5948,18 @@
         <v>5.59</v>
       </c>
       <c r="S90" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U90" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B91" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="Q91" s="3">
         <v>2.35</v>
@@ -5968,18 +5968,18 @@
         <v>6.36</v>
       </c>
       <c r="S91" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U91" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B92" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="Q92" s="3">
         <v>34.880000000000003</v>
@@ -5988,18 +5988,18 @@
         <v>26.12</v>
       </c>
       <c r="S92" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U92" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B93" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="Q93" s="3">
         <v>17.37</v>
@@ -6008,18 +6008,18 @@
         <v>17.77</v>
       </c>
       <c r="S93" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U93" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B94" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="Q94" s="3">
         <v>9.94</v>
@@ -6028,18 +6028,18 @@
         <v>13.48</v>
       </c>
       <c r="S94" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U94" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B95" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Q95" s="3">
         <v>16.600000000000001</v>
@@ -6048,15 +6048,15 @@
         <v>17.77</v>
       </c>
       <c r="S95" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U95" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -6068,15 +6068,15 @@
         <v>6.22</v>
       </c>
       <c r="S96" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U96" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B97">
         <v>3</v>
@@ -6088,15 +6088,15 @@
         <v>10.36</v>
       </c>
       <c r="S97" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U97" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B98">
         <v>4</v>
@@ -6108,15 +6108,15 @@
         <v>8.5</v>
       </c>
       <c r="S98" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U98" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -6128,15 +6128,15 @@
         <v>14.24</v>
       </c>
       <c r="S99" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U99" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B100">
         <v>6</v>
@@ -6148,15 +6148,15 @@
         <v>9.0299999999999994</v>
       </c>
       <c r="S100" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U100" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B101">
         <v>7</v>
@@ -6168,15 +6168,15 @@
         <v>18.899999999999999</v>
       </c>
       <c r="S101" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U101" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B102">
         <v>175</v>
@@ -6188,18 +6188,18 @@
         <v>6.87</v>
       </c>
       <c r="S102" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U102" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B103" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="Q103" s="3">
         <v>7.73</v>
@@ -6208,18 +6208,18 @@
         <v>11.14</v>
       </c>
       <c r="S103" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U103" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B104" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="Q104" s="3">
         <v>7.55</v>
@@ -6228,18 +6228,18 @@
         <v>11.2</v>
       </c>
       <c r="S104" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U104" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B105" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="Q105" s="3">
         <v>1.1200000000000001</v>
@@ -6248,18 +6248,18 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="S105" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U105" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B106" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="Q106" s="3">
         <v>7.89</v>
@@ -6268,18 +6268,18 @@
         <v>10.64</v>
       </c>
       <c r="S106" t="s">
+        <v>128</v>
+      </c>
+      <c r="U106" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>141</v>
+      </c>
+      <c r="B107" t="s">
         <v>134</v>
-      </c>
-      <c r="U106" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>147</v>
-      </c>
-      <c r="B107" t="s">
-        <v>140</v>
       </c>
       <c r="Q107" s="3">
         <v>9.6</v>
@@ -6288,15 +6288,15 @@
         <v>12.54</v>
       </c>
       <c r="S107" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U107" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B108">
         <v>103</v>
@@ -6308,15 +6308,15 @@
         <v>9.17</v>
       </c>
       <c r="S108" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="U108" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B109">
         <v>151</v>
@@ -6328,15 +6328,15 @@
         <v>8.9499999999999993</v>
       </c>
       <c r="S109" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="U109" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B110">
         <v>154</v>
@@ -6348,15 +6348,15 @@
         <v>5.92</v>
       </c>
       <c r="S110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="U110" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B111">
         <v>164</v>
@@ -6368,15 +6368,15 @@
         <v>8.5399999999999991</v>
       </c>
       <c r="S111" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="U111" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B112">
         <v>165</v>
@@ -6388,15 +6388,15 @@
         <v>9.49</v>
       </c>
       <c r="S112" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="U112" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B113">
         <v>169</v>
@@ -6408,15 +6408,15 @@
         <v>9.74</v>
       </c>
       <c r="S113" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="U113" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B114">
         <v>180</v>
@@ -6428,15 +6428,15 @@
         <v>8.48</v>
       </c>
       <c r="S114" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="U114" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B115">
         <v>184</v>
@@ -6448,15 +6448,15 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="S115" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="U115" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B116">
         <v>186</v>
@@ -6468,15 +6468,15 @@
         <v>12.26</v>
       </c>
       <c r="S116" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="U116" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B117">
         <v>190</v>
@@ -6488,15 +6488,15 @@
         <v>9.8800000000000008</v>
       </c>
       <c r="S117" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="U117" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B118">
         <v>200</v>
@@ -6508,13 +6508,14 @@
         <v>11.42</v>
       </c>
       <c r="S118" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="U118" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:V118" xr:uid="{9378DE56-4AC5-415E-848F-E2ACB5B89CDD}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
